--- a/rtm_flask/data/battery.xlsx
+++ b/rtm_flask/data/battery.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhaoYinglong\Documents\vscode\rtm\data_visualization\f12\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\21python\rtm\rtm_flask\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5B069D-9609-474C-A838-0391D8ABADB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="1065" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6585" yWindow="1065" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="lavida_6_char" sheetId="1" r:id="rId1"/>
@@ -123,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,7 +440,1321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:T16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3.2282495075305378E-7</v>
+      </c>
+      <c r="L2">
+        <v>5.4234591726513033E-5</v>
+      </c>
+      <c r="M2">
+        <v>2.2242639106885405E-4</v>
+      </c>
+      <c r="N2">
+        <v>3.0184132895410529E-4</v>
+      </c>
+      <c r="O2">
+        <v>1.7303417360363681E-4</v>
+      </c>
+      <c r="P2">
+        <v>3.1959670124552322E-5</v>
+      </c>
+      <c r="Q2">
+        <v>2.9054245567774838E-6</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>7.4249738673202363E-6</v>
+      </c>
+      <c r="L3">
+        <v>2.4631543742458E-4</v>
+      </c>
+      <c r="M3">
+        <v>1.1082580559352336E-3</v>
+      </c>
+      <c r="N3">
+        <v>1.3419833202804445E-3</v>
+      </c>
+      <c r="O3">
+        <v>6.0303700800670441E-4</v>
+      </c>
+      <c r="P3">
+        <v>1.255789058429379E-4</v>
+      </c>
+      <c r="Q3">
+        <v>1.1944523177862989E-5</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1.7755372291417958E-5</v>
+      </c>
+      <c r="L4">
+        <v>5.333068186440448E-4</v>
+      </c>
+      <c r="M4">
+        <v>2.4712249980146264E-3</v>
+      </c>
+      <c r="N4">
+        <v>2.8256867939414794E-3</v>
+      </c>
+      <c r="O4">
+        <v>1.1821849696576829E-3</v>
+      </c>
+      <c r="P4">
+        <v>2.3727633880349451E-4</v>
+      </c>
+      <c r="Q4">
+        <v>1.8401022192924065E-5</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1.9369497045183224E-5</v>
+      </c>
+      <c r="L5">
+        <v>8.0996780143941188E-4</v>
+      </c>
+      <c r="M5">
+        <v>3.8680885599230901E-3</v>
+      </c>
+      <c r="N5">
+        <v>4.5130928115276912E-3</v>
+      </c>
+      <c r="O5">
+        <v>1.7645611808161919E-3</v>
+      </c>
+      <c r="P5">
+        <v>3.3412382402941065E-4</v>
+      </c>
+      <c r="Q5">
+        <v>2.0983621798948494E-5</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2.4211871306479033E-5</v>
+      </c>
+      <c r="L6">
+        <v>1.1308558024879472E-3</v>
+      </c>
+      <c r="M6">
+        <v>5.8137545381117452E-3</v>
+      </c>
+      <c r="N6">
+        <v>6.8358183321959136E-3</v>
+      </c>
+      <c r="O6">
+        <v>2.7062415621628495E-3</v>
+      </c>
+      <c r="P6">
+        <v>5.4751111647717923E-4</v>
+      </c>
+      <c r="Q6">
+        <v>4.3904193302415312E-5</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2.9699895469280945E-5</v>
+      </c>
+      <c r="L7">
+        <v>1.5079153449675141E-3</v>
+      </c>
+      <c r="M7">
+        <v>8.1439050326472875E-3</v>
+      </c>
+      <c r="N7">
+        <v>9.7512504624467419E-3</v>
+      </c>
+      <c r="O7">
+        <v>3.9788175180313877E-3</v>
+      </c>
+      <c r="P7">
+        <v>7.7994508101937793E-4</v>
+      </c>
+      <c r="Q7">
+        <v>5.1651992120488605E-5</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>5.6171541431031358E-5</v>
+      </c>
+      <c r="L8">
+        <v>2.0021603445704392E-3</v>
+      </c>
+      <c r="M8">
+        <v>1.1200734491327953E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.3989942065834338E-2</v>
+      </c>
+      <c r="O8">
+        <v>5.9990560598439978E-3</v>
+      </c>
+      <c r="P8">
+        <v>1.2218924386003084E-3</v>
+      </c>
+      <c r="Q8">
+        <v>7.7800813131485952E-5</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>6.4242165199857699E-5</v>
+      </c>
+      <c r="L9">
+        <v>2.1161175521862675E-3</v>
+      </c>
+      <c r="M9">
+        <v>1.2741577981272279E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.7251765368243192E-2</v>
+      </c>
+      <c r="O9">
+        <v>8.152298481366867E-3</v>
+      </c>
+      <c r="P9">
+        <v>1.7432547340664904E-3</v>
+      </c>
+      <c r="Q9">
+        <v>1.075007086007669E-4</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>4.6163967957686686E-5</v>
+      </c>
+      <c r="L10">
+        <v>2.0467101877743609E-3</v>
+      </c>
+      <c r="M10">
+        <v>1.3620953147123598E-2</v>
+      </c>
+      <c r="N10">
+        <v>1.9556089866718491E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.016026967505086E-2</v>
+      </c>
+      <c r="P10">
+        <v>2.3737318628872044E-3</v>
+      </c>
+      <c r="Q10">
+        <v>1.4204297833134366E-4</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>4.1644418647143932E-5</v>
+      </c>
+      <c r="L11">
+        <v>1.9966723204076376E-3</v>
+      </c>
+      <c r="M11">
+        <v>1.443834592243033E-2</v>
+      </c>
+      <c r="N11">
+        <v>2.2593872653304727E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.2574031831831443E-2</v>
+      </c>
+      <c r="P11">
+        <v>3.3467262644569081E-3</v>
+      </c>
+      <c r="Q11">
+        <v>2.0144276926990553E-4</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3.4865094681329806E-5</v>
+      </c>
+      <c r="L12">
+        <v>1.934044279961545E-3</v>
+      </c>
+      <c r="M12">
+        <v>1.492581159806744E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.4442045496365958E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.4494517463861361E-2</v>
+      </c>
+      <c r="P12">
+        <v>4.4756451172403375E-3</v>
+      </c>
+      <c r="Q12">
+        <v>2.6471645961750407E-4</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2.9699895469280945E-5</v>
+      </c>
+      <c r="L13">
+        <v>1.8258979214592721E-3</v>
+      </c>
+      <c r="M13">
+        <v>1.5200212806207536E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.4854938608379114E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.5393262126757862E-2</v>
+      </c>
+      <c r="P13">
+        <v>5.7572601717299611E-3</v>
+      </c>
+      <c r="Q13">
+        <v>2.8666855626871172E-4</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>4.0030293893378669E-5</v>
+      </c>
+      <c r="L14">
+        <v>1.9911842962448355E-3</v>
+      </c>
+      <c r="M14">
+        <v>1.5864263729906569E-2</v>
+      </c>
+      <c r="N14">
+        <v>2.554384705328613E-2</v>
+      </c>
+      <c r="O14">
+        <v>1.6315573011059337E-2</v>
+      </c>
+      <c r="P14">
+        <v>6.7383251970684916E-3</v>
+      </c>
+      <c r="Q14">
+        <v>2.7343273328783653E-4</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>4.6809617859192796E-5</v>
+      </c>
+      <c r="L15">
+        <v>2.3088440477858404E-3</v>
+      </c>
+      <c r="M15">
+        <v>1.8649274580053162E-2</v>
+      </c>
+      <c r="N15">
+        <v>2.8179067126283309E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.7231104571394998E-2</v>
+      </c>
+      <c r="P15">
+        <v>7.7697509147244982E-3</v>
+      </c>
+      <c r="Q15">
+        <v>2.3630786395123537E-4</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3.7770519238107289E-5</v>
+      </c>
+      <c r="L16">
+        <v>2.4085969575685343E-3</v>
+      </c>
+      <c r="M16">
+        <v>2.0074869562578649E-2</v>
+      </c>
+      <c r="N16">
+        <v>2.9004530525358868E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.7615589087741884E-2</v>
+      </c>
+      <c r="P16">
+        <v>8.6313707082843992E-3</v>
+      </c>
+      <c r="Q16">
+        <v>1.9982864451614029E-4</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>4.2935718450156153E-5</v>
+      </c>
+      <c r="L17">
+        <v>2.6645971435157057E-3</v>
+      </c>
+      <c r="M17">
+        <v>2.121379598883542E-2</v>
+      </c>
+      <c r="N17">
+        <v>2.9172722324701209E-2</v>
+      </c>
+      <c r="O17">
+        <v>1.7781843937379707E-2</v>
+      </c>
+      <c r="P17">
+        <v>9.3819387187852477E-3</v>
+      </c>
+      <c r="Q17">
+        <v>1.4720817754339252E-4</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>5.1651992120488605E-5</v>
+      </c>
+      <c r="L18">
+        <v>2.7924358240139151E-3</v>
+      </c>
+      <c r="M18">
+        <v>2.1917554381477078E-2</v>
+      </c>
+      <c r="N18">
+        <v>2.9167234300538407E-2</v>
+      </c>
+      <c r="O18">
+        <v>1.799361710507371E-2</v>
+      </c>
+      <c r="P18">
+        <v>1.0376239567104654E-2</v>
+      </c>
+      <c r="Q18">
+        <v>1.2235065633540737E-4</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>3.9384643991872559E-5</v>
+      </c>
+      <c r="L19">
+        <v>2.8179389951234063E-3</v>
+      </c>
+      <c r="M19">
+        <v>2.1697387765063497E-2</v>
+      </c>
+      <c r="N19">
+        <v>2.8251057090301242E-2</v>
+      </c>
+      <c r="O19">
+        <v>1.8278994361539409E-2</v>
+      </c>
+      <c r="P19">
+        <v>1.2126273625136958E-2</v>
+      </c>
+      <c r="Q19">
+        <v>1.0846918345302607E-4</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>4.5841143006933637E-5</v>
+      </c>
+      <c r="L20">
+        <v>2.6426450468644983E-3</v>
+      </c>
+      <c r="M20">
+        <v>2.1161175521862675E-2</v>
+      </c>
+      <c r="N20">
+        <v>2.7589588766208234E-2</v>
+      </c>
+      <c r="O20">
+        <v>1.9043443844922642E-2</v>
+      </c>
+      <c r="P20">
+        <v>1.366033779111547E-2</v>
+      </c>
+      <c r="Q20">
+        <v>8.361166224504092E-5</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>4.9392217465217225E-5</v>
+      </c>
+      <c r="L21">
+        <v>2.4153762815343482E-3</v>
+      </c>
+      <c r="M21">
+        <v>1.9988352475776829E-2</v>
+      </c>
+      <c r="N21">
+        <v>2.7097280716309825E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.9361426421414401E-2</v>
+      </c>
+      <c r="P21">
+        <v>1.3470193895121921E-2</v>
+      </c>
+      <c r="Q21">
+        <v>5.6494366381784407E-5</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1.6141247537652689E-6</v>
+      </c>
+      <c r="M22">
+        <v>4.8423742612958061E-6</v>
+      </c>
+      <c r="N22">
+        <v>1.0007573473344667E-5</v>
+      </c>
+      <c r="O22">
+        <v>3.0022720420034E-5</v>
+      </c>
+      <c r="P22">
+        <v>6.7793239658141292E-6</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -532,37 +1845,37 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.0389602833535602E-7</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6.3376577284567171E-6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.6311647357762959E-5</v>
       </c>
       <c r="K2">
-        <v>3.2282495075305378E-7</v>
+        <v>7.3163583153757709E-4</v>
       </c>
       <c r="L2">
-        <v>5.4234591726513033E-5</v>
+        <v>1.0081343317464601E-2</v>
       </c>
       <c r="M2">
-        <v>2.2242639106885405E-4</v>
+        <v>7.6834749314987516E-2</v>
       </c>
       <c r="N2">
-        <v>3.0184132895410529E-4</v>
+        <v>0.25262859549089162</v>
       </c>
       <c r="O2">
-        <v>1.7303417360363681E-4</v>
+        <v>2.0283413819854886E-2</v>
       </c>
       <c r="P2">
-        <v>3.1959670124552322E-5</v>
+        <v>1.9283102859042077E-4</v>
       </c>
       <c r="Q2">
-        <v>2.9054245567774838E-6</v>
+        <v>4.4571396155867731E-5</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7.2727219834749215E-7</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -594,34 +1907,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.1168808500606803E-7</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.0389544651759733E-6</v>
       </c>
       <c r="K3">
-        <v>7.4249738673202363E-6</v>
+        <v>7.3038907919755275E-5</v>
       </c>
       <c r="L3">
-        <v>2.4631543742458E-4</v>
+        <v>8.3563575590126838E-4</v>
       </c>
       <c r="M3">
-        <v>1.1082580559352336E-3</v>
+        <v>5.9374502273089255E-3</v>
       </c>
       <c r="N3">
-        <v>1.3419833202804445E-3</v>
+        <v>1.7994584315626991E-2</v>
       </c>
       <c r="O3">
-        <v>6.0303700800670441E-4</v>
+        <v>1.4969339762558095E-3</v>
       </c>
       <c r="P3">
-        <v>1.255789058429379E-4</v>
+        <v>2.0779205667071202E-5</v>
       </c>
       <c r="Q3">
-        <v>1.1944523177862989E-5</v>
+        <v>1.8701285100364082E-6</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.2467523400242721E-6</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -653,34 +1966,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.0389602833535602E-7</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.3116822668284815E-6</v>
       </c>
       <c r="K4">
-        <v>1.7755372291417958E-5</v>
+        <v>8.6025911461674775E-5</v>
       </c>
       <c r="L4">
-        <v>5.333068186440448E-4</v>
+        <v>1.0491420941304251E-3</v>
       </c>
       <c r="M4">
-        <v>2.4712249980146264E-3</v>
+        <v>7.706903485888374E-3</v>
       </c>
       <c r="N4">
-        <v>2.8256867939414794E-3</v>
+        <v>1.8814427875221286E-2</v>
       </c>
       <c r="O4">
-        <v>1.1821849696576829E-3</v>
+        <v>1.3688301733183156E-3</v>
       </c>
       <c r="P4">
-        <v>2.3727633880349451E-4</v>
+        <v>1.6831156590327675E-5</v>
       </c>
       <c r="Q4">
-        <v>1.8401022192924065E-5</v>
+        <v>5.1948014167678009E-7</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.5584404250303403E-6</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -715,28 +2028,28 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.2597371617495967E-6</v>
       </c>
       <c r="K5">
-        <v>1.9369497045183224E-5</v>
+        <v>8.2805134583278743E-5</v>
       </c>
       <c r="L5">
-        <v>8.0996780143941188E-4</v>
+        <v>1.1480511131056841E-3</v>
       </c>
       <c r="M5">
-        <v>3.8680885599230901E-3</v>
+        <v>8.4367730849442494E-3</v>
       </c>
       <c r="N5">
-        <v>4.5130928115276912E-3</v>
+        <v>1.9188245785171896E-2</v>
       </c>
       <c r="O5">
-        <v>1.7645611808161919E-3</v>
+        <v>1.3528301849546707E-3</v>
       </c>
       <c r="P5">
-        <v>3.3412382402941065E-4</v>
+        <v>1.8389597015358015E-5</v>
       </c>
       <c r="Q5">
-        <v>2.0983621798948494E-5</v>
+        <v>8.3116822668284813E-7</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -771,34 +2084,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.1558411334142406E-7</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.9610338984688529E-6</v>
       </c>
       <c r="K6">
-        <v>2.4211871306479033E-5</v>
+        <v>9.7142786493557875E-5</v>
       </c>
       <c r="L6">
-        <v>1.1308558024879472E-3</v>
+        <v>1.1894017323831557E-3</v>
       </c>
       <c r="M6">
-        <v>5.8137545381117452E-3</v>
+        <v>8.6323054102713896E-3</v>
       </c>
       <c r="N6">
-        <v>6.8358183321959136E-3</v>
+        <v>1.9383985902555707E-2</v>
       </c>
       <c r="O6">
-        <v>2.7062415621628495E-3</v>
+        <v>1.4319989585462119E-3</v>
       </c>
       <c r="P6">
-        <v>5.4751111647717923E-4</v>
+        <v>1.6207780420315539E-5</v>
       </c>
       <c r="Q6">
-        <v>4.3904193302415312E-5</v>
+        <v>1.1428563116889162E-6</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>6.2337617001213607E-7</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -827,34 +2140,34 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.0389602833535602E-7</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.1558411334142406E-7</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.2337617001213611E-6</v>
       </c>
       <c r="K7">
-        <v>2.9699895469280945E-5</v>
+        <v>8.935058436840618E-5</v>
       </c>
       <c r="L7">
-        <v>1.5079153449675141E-3</v>
+        <v>1.1504407217573971E-3</v>
       </c>
       <c r="M7">
-        <v>8.1439050326472875E-3</v>
+        <v>8.5371366483162035E-3</v>
       </c>
       <c r="N7">
-        <v>9.7512504624467419E-3</v>
+        <v>1.896715503687426E-2</v>
       </c>
       <c r="O7">
-        <v>3.9788175180313877E-3</v>
+        <v>1.5349599226265498E-3</v>
       </c>
       <c r="P7">
-        <v>7.7994508101937793E-4</v>
+        <v>1.8285700987022659E-5</v>
       </c>
       <c r="Q7">
-        <v>5.1651992120488605E-5</v>
+        <v>1.2467523400242721E-6</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -892,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.3766180118102768E-6</v>
       </c>
       <c r="K8">
-        <v>5.6171541431031358E-5</v>
+        <v>8.6857079688357623E-5</v>
       </c>
       <c r="L8">
-        <v>2.0021603445704392E-3</v>
+        <v>1.2327263761989992E-3</v>
       </c>
       <c r="M8">
-        <v>1.1200734491327953E-2</v>
+        <v>9.0802011884251101E-3</v>
       </c>
       <c r="N8">
-        <v>1.3989942065834338E-2</v>
+        <v>1.9681751919764838E-2</v>
       </c>
       <c r="O8">
-        <v>5.9990560598439978E-3</v>
+        <v>1.6544403552122091E-3</v>
       </c>
       <c r="P8">
-        <v>1.2218924386003084E-3</v>
+        <v>1.6727260561992319E-5</v>
       </c>
       <c r="Q8">
-        <v>7.7800813131485952E-5</v>
+        <v>1.0389602833535602E-6</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -948,31 +2261,31 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.4545443966949843E-6</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.3376577284567171E-6</v>
       </c>
       <c r="K9">
-        <v>6.4242165199857699E-5</v>
+        <v>8.8519416141723332E-5</v>
       </c>
       <c r="L9">
-        <v>2.1161175521862675E-3</v>
+        <v>1.1979212067066548E-3</v>
       </c>
       <c r="M9">
-        <v>1.2741577981272279E-2</v>
+        <v>8.8599416083541549E-3</v>
       </c>
       <c r="N9">
-        <v>1.7251765368243192E-2</v>
+        <v>1.977120640016158E-2</v>
       </c>
       <c r="O9">
-        <v>8.152298481366867E-3</v>
+        <v>1.7427519792972618E-3</v>
       </c>
       <c r="P9">
-        <v>1.7432547340664904E-3</v>
+        <v>1.5792196306974115E-5</v>
       </c>
       <c r="Q9">
-        <v>1.075007086007669E-4</v>
+        <v>1.4545443966949843E-6</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1004,34 +2317,34 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.0779205667071203E-7</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.0779205667071203E-7</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.2597371617495967E-6</v>
       </c>
       <c r="K10">
-        <v>4.6163967957686686E-5</v>
+        <v>6.524670579460358E-5</v>
       </c>
       <c r="L10">
-        <v>2.0467101877743609E-3</v>
+        <v>9.9916810450111884E-4</v>
       </c>
       <c r="M10">
-        <v>1.3620953147123598E-2</v>
+        <v>8.242695304013805E-3</v>
       </c>
       <c r="N10">
-        <v>1.9556089866718491E-2</v>
+        <v>1.9572661090012714E-2</v>
       </c>
       <c r="O10">
-        <v>1.016026967505086E-2</v>
+        <v>1.8761544796798589E-3</v>
       </c>
       <c r="P10">
-        <v>2.3737318628872044E-3</v>
+        <v>1.6103884391980183E-5</v>
       </c>
       <c r="Q10">
-        <v>1.4204297833134366E-4</v>
+        <v>1.2467523400242721E-6</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1066,34 +2379,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.7662324817010522E-6</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.6623364533656963E-6</v>
       </c>
       <c r="K11">
-        <v>4.1644418647143932E-5</v>
+        <v>7.4181764231444201E-5</v>
       </c>
       <c r="L11">
-        <v>1.9966723204076376E-3</v>
+        <v>9.5407722820357432E-4</v>
       </c>
       <c r="M11">
-        <v>1.443834592243033E-2</v>
+        <v>8.6496560470033946E-3</v>
       </c>
       <c r="N11">
-        <v>2.2593872653304727E-2</v>
+        <v>2.0762166718424204E-2</v>
       </c>
       <c r="O11">
-        <v>1.2574031831831443E-2</v>
+        <v>2.0614010982017987E-3</v>
       </c>
       <c r="P11">
-        <v>3.3467262644569081E-3</v>
+        <v>2.2857126233778325E-5</v>
       </c>
       <c r="Q11">
-        <v>2.0144276926990553E-4</v>
+        <v>1.0389602833535602E-6</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.1428563116889162E-6</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1125,34 +2438,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.1948014167678009E-7</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.5324649634021045E-6</v>
       </c>
       <c r="K12">
-        <v>3.4865094681329806E-5</v>
+        <v>8.8103832028381895E-5</v>
       </c>
       <c r="L12">
-        <v>1.934044279961545E-3</v>
+        <v>1.1788043374929493E-3</v>
       </c>
       <c r="M12">
-        <v>1.492581159806744E-2</v>
+        <v>9.7430578492046817E-3</v>
       </c>
       <c r="N12">
-        <v>2.4442045496365958E-2</v>
+        <v>2.0611933061451281E-2</v>
       </c>
       <c r="O12">
-        <v>1.4494517463861361E-2</v>
+        <v>1.8652453967046465E-3</v>
       </c>
       <c r="P12">
-        <v>4.4756451172403375E-3</v>
+        <v>1.4649339995285198E-5</v>
       </c>
       <c r="Q12">
-        <v>2.6471645961750407E-4</v>
+        <v>2.5974007083839002E-6</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>2.0779205667071203E-7</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1184,34 +2497,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.2467523400242721E-6</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.4285689350667485E-6</v>
       </c>
       <c r="K13">
-        <v>2.9699895469280945E-5</v>
+        <v>9.7870058691905363E-5</v>
       </c>
       <c r="L13">
-        <v>1.8258979214592721E-3</v>
+        <v>1.3928301558637827E-3</v>
       </c>
       <c r="M13">
-        <v>1.5200212806207536E-2</v>
+        <v>1.1113342566919692E-2</v>
       </c>
       <c r="N13">
-        <v>2.4854938608379114E-2</v>
+        <v>2.0680712232209287E-2</v>
       </c>
       <c r="O13">
-        <v>1.5393262126757862E-2</v>
+        <v>1.6712715118025368E-3</v>
       </c>
       <c r="P13">
-        <v>5.7572601717299611E-3</v>
+        <v>1.8597389072028726E-5</v>
       </c>
       <c r="Q13">
-        <v>2.8666855626871172E-4</v>
+        <v>1.7662324817010522E-6</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>2.4935046800485443E-6</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1243,34 +2556,34 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.0389602833535602E-6</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.0519451050788848E-6</v>
       </c>
       <c r="K14">
-        <v>4.0030293893378669E-5</v>
+        <v>1.0857134961044704E-4</v>
       </c>
       <c r="L14">
-        <v>1.9911842962448355E-3</v>
+        <v>1.5217651270279596E-3</v>
       </c>
       <c r="M14">
-        <v>1.5864263729906569E-2</v>
+        <v>1.2114276903902512E-2</v>
       </c>
       <c r="N14">
-        <v>2.554384705328613E-2</v>
+        <v>2.1082789861867113E-2</v>
       </c>
       <c r="O14">
-        <v>1.6315573011059337E-2</v>
+        <v>1.6548559393255507E-3</v>
       </c>
       <c r="P14">
-        <v>6.7383251970684916E-3</v>
+        <v>1.7558428788675167E-5</v>
       </c>
       <c r="Q14">
-        <v>2.7343273328783653E-4</v>
+        <v>1.5584404250303403E-6</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.0389602833535602E-7</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1302,31 +2615,31 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>7.2727219834749215E-7</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.7142815584445812E-6</v>
       </c>
       <c r="K15">
-        <v>4.6809617859192796E-5</v>
+        <v>1.1781809613229372E-4</v>
       </c>
       <c r="L15">
-        <v>2.3088440477858404E-3</v>
+        <v>1.6965182466880285E-3</v>
       </c>
       <c r="M15">
-        <v>1.8649274580053162E-2</v>
+        <v>1.2976510043057631E-2</v>
       </c>
       <c r="N15">
-        <v>2.8179067126283309E-2</v>
+        <v>2.1170270317725483E-2</v>
       </c>
       <c r="O15">
-        <v>1.7231104571394998E-2</v>
+        <v>1.6224403784849196E-3</v>
       </c>
       <c r="P15">
-        <v>7.7697509147244982E-3</v>
+        <v>1.6727260561992319E-5</v>
       </c>
       <c r="Q15">
-        <v>2.3630786395123537E-4</v>
+        <v>8.3116822668284813E-7</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1361,34 +2674,34 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.1558411334142406E-7</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.5844100684809888E-6</v>
       </c>
       <c r="K16">
-        <v>3.7770519238107289E-5</v>
+        <v>1.3371418846760321E-4</v>
       </c>
       <c r="L16">
-        <v>2.4085969575685343E-3</v>
+        <v>1.7337130248320858E-3</v>
       </c>
       <c r="M16">
-        <v>2.0074869562578649E-2</v>
+        <v>1.3261392952753177E-2</v>
       </c>
       <c r="N16">
-        <v>2.9004530525358868E-2</v>
+        <v>2.0097024345021256E-2</v>
       </c>
       <c r="O16">
-        <v>1.7615589087741884E-2</v>
+        <v>1.6023884450161959E-3</v>
       </c>
       <c r="P16">
-        <v>8.6313707082843992E-3</v>
+        <v>1.4025963825273062E-5</v>
       </c>
       <c r="Q16">
-        <v>1.9982864451614029E-4</v>
+        <v>5.1948014167678009E-7</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>3.1168808500606803E-7</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1420,34 +2733,34 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.0779205667071203E-7</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.1038902101577695E-6</v>
       </c>
       <c r="K17">
-        <v>4.2935718450156153E-5</v>
+        <v>1.3277912421258498E-4</v>
       </c>
       <c r="L17">
-        <v>2.6645971435157057E-3</v>
+        <v>1.9201024996657145E-3</v>
       </c>
       <c r="M17">
-        <v>2.121379598883542E-2</v>
+        <v>1.3928093766581157E-2</v>
       </c>
       <c r="N17">
-        <v>2.9172722324701209E-2</v>
+        <v>1.9437492357148416E-2</v>
       </c>
       <c r="O17">
-        <v>1.7781843937379707E-2</v>
+        <v>1.685920851797822E-3</v>
       </c>
       <c r="P17">
-        <v>9.3819387187852477E-3</v>
+        <v>1.3506483683596282E-5</v>
       </c>
       <c r="Q17">
-        <v>1.4720817754339252E-4</v>
+        <v>5.1948014167678009E-7</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>3.1168808500606803E-7</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1479,34 +2792,34 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.3896086517131883E-6</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.2987003541919502E-5</v>
       </c>
       <c r="K18">
-        <v>5.1651992120488605E-5</v>
+        <v>1.5012976094458944E-4</v>
       </c>
       <c r="L18">
-        <v>2.7924358240139151E-3</v>
+        <v>2.0597387617484332E-3</v>
       </c>
       <c r="M18">
-        <v>2.1917554381477078E-2</v>
+        <v>1.4446950532087924E-2</v>
       </c>
       <c r="N18">
-        <v>2.9167234300538407E-2</v>
+        <v>1.8714272103906002E-2</v>
       </c>
       <c r="O18">
-        <v>1.799361710507371E-2</v>
+        <v>1.9014012145653503E-3</v>
       </c>
       <c r="P18">
-        <v>1.0376239567104654E-2</v>
+        <v>2.3064918290449037E-5</v>
       </c>
       <c r="Q18">
-        <v>1.2235065633540737E-4</v>
+        <v>2.0779205667071203E-7</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2.0779205667071203E-7</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1538,31 +2851,31 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>9.350642550182041E-7</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.3194795598590214E-5</v>
       </c>
       <c r="K19">
-        <v>3.9384643991872559E-5</v>
+        <v>1.6571416519489283E-4</v>
       </c>
       <c r="L19">
-        <v>2.8179389951234063E-3</v>
+        <v>2.1974009992927796E-3</v>
       </c>
       <c r="M19">
-        <v>2.1697387765063497E-2</v>
+        <v>1.4352301250274415E-2</v>
       </c>
       <c r="N19">
-        <v>2.8251057090301242E-2</v>
+        <v>1.748674052912377E-2</v>
       </c>
       <c r="O19">
-        <v>1.8278994361539409E-2</v>
+        <v>2.3234268816635668E-3</v>
       </c>
       <c r="P19">
-        <v>1.2126273625136958E-2</v>
+        <v>2.5246734885491512E-5</v>
       </c>
       <c r="Q19">
-        <v>1.0846918345302607E-4</v>
+        <v>1.4545443966949843E-6</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1597,31 +2910,31 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>8.3116822668284813E-7</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.6207780420315539E-5</v>
       </c>
       <c r="K20">
-        <v>4.5841143006933637E-5</v>
+        <v>2.0986997723741914E-4</v>
       </c>
       <c r="L20">
-        <v>2.6426450468644983E-3</v>
+        <v>2.3030632601098366E-3</v>
       </c>
       <c r="M20">
-        <v>2.1161175521862675E-2</v>
+        <v>1.4158327365372305E-2</v>
       </c>
       <c r="N20">
-        <v>2.7589588766208234E-2</v>
+        <v>1.7074065504575738E-2</v>
       </c>
       <c r="O20">
-        <v>1.9043443844922642E-2</v>
+        <v>3.0492445356143636E-3</v>
       </c>
       <c r="P20">
-        <v>1.366033779111547E-2</v>
+        <v>4.0311658994118132E-5</v>
       </c>
       <c r="Q20">
-        <v>8.361166224504092E-5</v>
+        <v>9.350642550182041E-7</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -1653,34 +2966,34 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.0779205667071203E-7</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.2857126233778323E-6</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.1818165950424762E-5</v>
       </c>
       <c r="K21">
-        <v>4.9392217465217225E-5</v>
+        <v>2.4374008247474521E-4</v>
       </c>
       <c r="L21">
-        <v>2.4153762815343482E-3</v>
+        <v>2.4666995047380224E-3</v>
       </c>
       <c r="M21">
-        <v>1.9988352475776829E-2</v>
+        <v>1.393224960771457E-2</v>
       </c>
       <c r="N21">
-        <v>2.7097280716309825E-2</v>
+        <v>1.453921020524972E-2</v>
       </c>
       <c r="O21">
-        <v>1.9361426421414401E-2</v>
+        <v>3.87262056017206E-3</v>
       </c>
       <c r="P21">
-        <v>1.3470193895121921E-2</v>
+        <v>6.3896057426243949E-5</v>
       </c>
       <c r="Q21">
-        <v>5.6494366381784407E-5</v>
+        <v>6.2337617001213607E-7</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -1718,28 +3031,28 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.1558411334142406E-7</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.9610338984688529E-6</v>
       </c>
       <c r="L22">
-        <v>1.6141247537652689E-6</v>
+        <v>1.3579210903431031E-4</v>
       </c>
       <c r="M22">
-        <v>4.8423742612958061E-6</v>
+        <v>1.1732978479911756E-3</v>
       </c>
       <c r="N22">
-        <v>1.0007573473344667E-5</v>
+        <v>1.3474275914812323E-3</v>
       </c>
       <c r="O22">
-        <v>3.0022720420034E-5</v>
+        <v>5.3475285784207742E-4</v>
       </c>
       <c r="P22">
-        <v>6.7793239658141292E-6</v>
+        <v>6.545449785127429E-6</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1.0389602833535602E-7</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -1754,8 +3067,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2558E2DE-348B-474E-B853-FD29D742ED3C}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1846,37 +3159,37 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.0389602833535602E-7</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.3376577284567171E-6</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.6311647357762959E-5</v>
+        <v>2.85044431300729E-6</v>
       </c>
       <c r="K2">
-        <v>7.3163583153757709E-4</v>
+        <v>3.7412081608220683E-5</v>
       </c>
       <c r="L2">
-        <v>1.0081343317464601E-2</v>
+        <v>8.5976526591082382E-4</v>
       </c>
       <c r="M2">
-        <v>7.6834749314987516E-2</v>
+        <v>7.8820129837738461E-3</v>
       </c>
       <c r="N2">
-        <v>0.25262859549089162</v>
+        <v>3.2609082940803398E-2</v>
       </c>
       <c r="O2">
-        <v>2.0283413819854886E-2</v>
+        <v>2.7619023865345011E-3</v>
       </c>
       <c r="P2">
-        <v>1.9283102859042077E-4</v>
+        <v>1.9418651882362163E-5</v>
       </c>
       <c r="Q2">
-        <v>4.4571396155867731E-5</v>
+        <v>2.1378332347554676E-6</v>
       </c>
       <c r="R2">
-        <v>7.2727219834749215E-7</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1908,34 +3221,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.1168808500606803E-7</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.0389544651759733E-6</v>
+        <v>8.9076384781477809E-7</v>
       </c>
       <c r="K3">
-        <v>7.3038907919755275E-5</v>
+        <v>1.6924513108480786E-5</v>
       </c>
       <c r="L3">
-        <v>8.3563575590126838E-4</v>
+        <v>3.9282685688631715E-4</v>
       </c>
       <c r="M3">
-        <v>5.9374502273089255E-3</v>
+        <v>3.8685873910595816E-3</v>
       </c>
       <c r="N3">
-        <v>1.7994584315626991E-2</v>
+        <v>1.5247739241354245E-2</v>
       </c>
       <c r="O3">
-        <v>1.4969339762558095E-3</v>
+        <v>1.9386584383840832E-3</v>
       </c>
       <c r="P3">
-        <v>2.0779205667071202E-5</v>
+        <v>7.4824163216441363E-6</v>
       </c>
       <c r="Q3">
-        <v>1.8701285100364082E-6</v>
+        <v>1.2470693869406894E-6</v>
       </c>
       <c r="R3">
-        <v>1.2467523400242721E-6</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1967,34 +3280,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.0389602833535602E-7</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>8.3116822668284815E-6</v>
+        <v>1.425222156503645E-6</v>
       </c>
       <c r="K4">
-        <v>8.6025911461674775E-5</v>
+        <v>3.3136415138709747E-5</v>
       </c>
       <c r="L4">
-        <v>1.0491420941304251E-3</v>
+        <v>6.1516151330088577E-4</v>
       </c>
       <c r="M4">
-        <v>7.706903485888374E-3</v>
+        <v>6.1826137149128121E-3</v>
       </c>
       <c r="N4">
-        <v>1.8814427875221286E-2</v>
+        <v>2.3756671821220134E-2</v>
       </c>
       <c r="O4">
-        <v>1.3688301733183156E-3</v>
+        <v>4.250190623463432E-3</v>
       </c>
       <c r="P4">
-        <v>1.6831156590327675E-5</v>
+        <v>1.264884663896985E-5</v>
       </c>
       <c r="Q4">
-        <v>5.1948014167678009E-7</v>
+        <v>2.6722915434443346E-6</v>
       </c>
       <c r="R4">
-        <v>1.5584404250303403E-6</v>
+        <v>1.7815276956295562E-7</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2029,31 +3342,31 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.2597371617495967E-6</v>
+        <v>5.3445830868886689E-7</v>
       </c>
       <c r="K5">
-        <v>8.2805134583278743E-5</v>
+        <v>3.5096095603902261E-5</v>
       </c>
       <c r="L5">
-        <v>1.1480511131056841E-3</v>
+        <v>5.9378318095333106E-4</v>
       </c>
       <c r="M5">
-        <v>8.4367730849442494E-3</v>
+        <v>6.344732735215102E-3</v>
       </c>
       <c r="N5">
-        <v>1.9188245785171896E-2</v>
+        <v>2.3265326482765501E-2</v>
       </c>
       <c r="O5">
-        <v>1.3528301849546707E-3</v>
+        <v>6.04988990158841E-3</v>
       </c>
       <c r="P5">
-        <v>1.8389597015358015E-5</v>
+        <v>1.6033749260666007E-5</v>
       </c>
       <c r="Q5">
-        <v>8.3116822668284813E-7</v>
+        <v>2.85044431300729E-6</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>5.3445830868886689E-7</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2085,34 +3398,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.1558411334142406E-7</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.9610338984688529E-6</v>
+        <v>5.3445830868886689E-7</v>
       </c>
       <c r="K6">
-        <v>9.7142786493557875E-5</v>
+        <v>2.9929665286576545E-5</v>
       </c>
       <c r="L6">
-        <v>1.1894017323831557E-3</v>
+        <v>5.7008886260145799E-4</v>
       </c>
       <c r="M6">
-        <v>8.6323054102713896E-3</v>
+        <v>6.7104803711278494E-3</v>
       </c>
       <c r="N6">
-        <v>1.9383985902555707E-2</v>
+        <v>2.3632677493604315E-2</v>
       </c>
       <c r="O6">
-        <v>1.4319989585462119E-3</v>
+        <v>8.3359462406202567E-3</v>
       </c>
       <c r="P6">
-        <v>1.6207780420315539E-5</v>
+        <v>1.8527888034547384E-5</v>
       </c>
       <c r="Q6">
-        <v>1.1428563116889162E-6</v>
+        <v>3.384902621696157E-6</v>
       </c>
       <c r="R6">
-        <v>6.2337617001213607E-7</v>
+        <v>3.5630553912591125E-7</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -2141,37 +3454,37 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.0389602833535602E-7</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.1558411334142406E-7</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.2337617001213611E-6</v>
+        <v>1.425222156503645E-6</v>
       </c>
       <c r="K7">
-        <v>8.935058436840618E-5</v>
+        <v>3.1354887443080188E-5</v>
       </c>
       <c r="L7">
-        <v>1.1504407217573971E-3</v>
+        <v>5.4194072501051102E-4</v>
       </c>
       <c r="M7">
-        <v>8.5371366483162035E-3</v>
+        <v>6.8934432654690053E-3</v>
       </c>
       <c r="N7">
-        <v>1.896715503687426E-2</v>
+        <v>2.3729058141937875E-2</v>
       </c>
       <c r="O7">
-        <v>1.5349599226265498E-3</v>
+        <v>1.0738870796485403E-2</v>
       </c>
       <c r="P7">
-        <v>1.8285700987022659E-5</v>
+        <v>2.1200179577991719E-5</v>
       </c>
       <c r="Q7">
-        <v>1.2467523400242721E-6</v>
+        <v>2.85044431300729E-6</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>3.5630553912591125E-7</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -2206,31 +3519,31 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.3766180118102768E-6</v>
+        <v>1.425222156503645E-6</v>
       </c>
       <c r="K8">
-        <v>8.6857079688357623E-5</v>
+        <v>3.0285970825702458E-5</v>
       </c>
       <c r="L8">
-        <v>1.2327263761989992E-3</v>
+        <v>5.2270022589771185E-4</v>
       </c>
       <c r="M8">
-        <v>9.0802011884251101E-3</v>
+        <v>7.0728431044189011E-3</v>
       </c>
       <c r="N8">
-        <v>1.9681751919764838E-2</v>
+        <v>2.332482950779953E-2</v>
       </c>
       <c r="O8">
-        <v>1.6544403552122091E-3</v>
+        <v>1.304915591217781E-2</v>
       </c>
       <c r="P8">
-        <v>1.6727260561992319E-5</v>
+        <v>3.6877623299531813E-5</v>
       </c>
       <c r="Q8">
-        <v>1.0389602833535602E-6</v>
+        <v>4.4538192390738905E-6</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>7.1261107825182249E-7</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2262,34 +3575,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.4545443966949843E-6</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6.3376577284567171E-6</v>
+        <v>1.7815276956295562E-6</v>
       </c>
       <c r="K9">
-        <v>8.8519416141723332E-5</v>
+        <v>3.3492720677835656E-5</v>
       </c>
       <c r="L9">
-        <v>1.1979212067066548E-3</v>
+        <v>5.169993372716972E-4</v>
       </c>
       <c r="M9">
-        <v>8.8599416083541549E-3</v>
+        <v>7.1793784606175486E-3</v>
       </c>
       <c r="N9">
-        <v>1.977120640016158E-2</v>
+        <v>2.3404107490255042E-2</v>
       </c>
       <c r="O9">
-        <v>1.7427519792972618E-3</v>
+        <v>1.5722872677778648E-2</v>
       </c>
       <c r="P9">
-        <v>1.5792196306974115E-5</v>
+        <v>5.6118122412331025E-5</v>
       </c>
       <c r="Q9">
-        <v>1.4545443966949843E-6</v>
+        <v>5.8790413955775353E-6</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2.1378332347554676E-6</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2318,37 +3631,37 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.0779205667071203E-7</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.0779205667071203E-7</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.2597371617495967E-6</v>
+        <v>2.4941387738813788E-6</v>
       </c>
       <c r="K10">
-        <v>6.524670579460358E-5</v>
+        <v>2.9929665286576545E-5</v>
       </c>
       <c r="L10">
-        <v>9.9916810450111884E-4</v>
+        <v>4.8243769997648384E-4</v>
       </c>
       <c r="M10">
-        <v>8.242695304013805E-3</v>
+        <v>6.9166031255121895E-3</v>
       </c>
       <c r="N10">
-        <v>1.9572661090012714E-2</v>
+        <v>2.2680807245829444E-2</v>
       </c>
       <c r="O10">
-        <v>1.8761544796798589E-3</v>
+        <v>1.7847878913125583E-2</v>
       </c>
       <c r="P10">
-        <v>1.6103884391980183E-5</v>
+        <v>9.2995745711862838E-5</v>
       </c>
       <c r="Q10">
-        <v>1.2467523400242721E-6</v>
+        <v>4.9882775477627575E-6</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.425222156503645E-6</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2380,34 +3693,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.7662324817010522E-6</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.6623364533656963E-6</v>
+        <v>1.0689166173777338E-6</v>
       </c>
       <c r="K11">
-        <v>7.4181764231444201E-5</v>
+        <v>2.6188457125754476E-5</v>
       </c>
       <c r="L11">
-        <v>9.5407722820357432E-4</v>
+        <v>4.3112970234235261E-4</v>
       </c>
       <c r="M11">
-        <v>8.6496560470033946E-3</v>
+        <v>6.7763968958661431E-3</v>
       </c>
       <c r="N11">
-        <v>2.0762166718424204E-2</v>
+        <v>2.2254309515495729E-2</v>
       </c>
       <c r="O11">
-        <v>2.0614010982017987E-3</v>
+        <v>1.9900911429569085E-2</v>
       </c>
       <c r="P11">
-        <v>2.2857126233778325E-5</v>
+        <v>1.3040782732008351E-4</v>
       </c>
       <c r="Q11">
-        <v>1.0389602833535602E-6</v>
+        <v>6.0571941651404915E-6</v>
       </c>
       <c r="R11">
-        <v>1.1428563116889162E-6</v>
+        <v>2.315986004318423E-6</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2439,34 +3752,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.1948014167678009E-7</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>3.5324649634021045E-6</v>
+        <v>1.7815276956295562E-7</v>
       </c>
       <c r="K12">
-        <v>8.8103832028381895E-5</v>
+        <v>2.7079220973569256E-5</v>
       </c>
       <c r="L12">
-        <v>1.1788043374929493E-3</v>
+        <v>4.1384888369474593E-4</v>
       </c>
       <c r="M12">
-        <v>9.7430578492046817E-3</v>
+        <v>6.4489521054094303E-3</v>
       </c>
       <c r="N12">
-        <v>2.0611933061451281E-2</v>
+        <v>2.2259475945813054E-2</v>
       </c>
       <c r="O12">
-        <v>1.8652453967046465E-3</v>
+        <v>2.1540273215087401E-2</v>
       </c>
       <c r="P12">
-        <v>1.4649339995285198E-5</v>
+        <v>1.642568535370451E-4</v>
       </c>
       <c r="Q12">
-        <v>2.5974007083839002E-6</v>
+        <v>9.7984023259625589E-6</v>
       </c>
       <c r="R12">
-        <v>2.0779205667071203E-7</v>
+        <v>2.315986004318423E-6</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2498,34 +3811,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.2467523400242721E-6</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3.4285689350667485E-6</v>
+        <v>2.6722915434443346E-6</v>
       </c>
       <c r="K13">
-        <v>9.7870058691905363E-5</v>
+        <v>2.6544762664880389E-5</v>
       </c>
       <c r="L13">
-        <v>1.3928301558637827E-3</v>
+        <v>4.3807766035530786E-4</v>
       </c>
       <c r="M13">
-        <v>1.1113342566919692E-2</v>
+        <v>6.6192661531116167E-3</v>
       </c>
       <c r="N13">
-        <v>2.0680712232209287E-2</v>
+        <v>2.188731481019604E-2</v>
       </c>
       <c r="O13">
-        <v>1.6712715118025368E-3</v>
+        <v>2.2609902443543387E-2</v>
       </c>
       <c r="P13">
-        <v>1.8597389072028726E-5</v>
+        <v>1.674636033891783E-4</v>
       </c>
       <c r="Q13">
-        <v>1.7662324817010522E-6</v>
+        <v>6.4134997042664023E-6</v>
       </c>
       <c r="R13">
-        <v>2.4935046800485443E-6</v>
+        <v>2.1378332347554676E-6</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2557,34 +3870,34 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.0389602833535602E-6</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4.0519451050788848E-6</v>
+        <v>1.6033749260666006E-6</v>
       </c>
       <c r="K14">
-        <v>1.0857134961044704E-4</v>
+        <v>3.3670873447398611E-5</v>
       </c>
       <c r="L14">
-        <v>1.5217651270279596E-3</v>
+        <v>5.2875742006285227E-4</v>
       </c>
       <c r="M14">
-        <v>1.2114276903902512E-2</v>
+        <v>7.4222006855318573E-3</v>
       </c>
       <c r="N14">
-        <v>2.1082789861867113E-2</v>
+        <v>2.3723179100542297E-2</v>
       </c>
       <c r="O14">
-        <v>1.6548559393255507E-3</v>
+        <v>2.3928589243848386E-2</v>
       </c>
       <c r="P14">
-        <v>1.7558428788675167E-5</v>
+        <v>1.9293944943668095E-4</v>
       </c>
       <c r="Q14">
-        <v>1.5584404250303403E-6</v>
+        <v>4.0975136999479798E-6</v>
       </c>
       <c r="R14">
-        <v>1.0389602833535602E-7</v>
+        <v>1.2470693869406894E-6</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2616,31 +3929,31 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.2727219834749215E-7</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.7142815584445812E-6</v>
+        <v>1.2470693869406894E-6</v>
       </c>
       <c r="K15">
-        <v>1.1781809613229372E-4</v>
+        <v>3.5630553912591124E-5</v>
       </c>
       <c r="L15">
-        <v>1.6965182466880285E-3</v>
+        <v>6.0981693021399709E-4</v>
       </c>
       <c r="M15">
-        <v>1.2976510043057631E-2</v>
+        <v>8.1271511946924731E-3</v>
       </c>
       <c r="N15">
-        <v>2.1170270317725483E-2</v>
+        <v>2.508978899585973E-2</v>
       </c>
       <c r="O15">
-        <v>1.6224403784849196E-3</v>
+        <v>2.5096558801103123E-2</v>
       </c>
       <c r="P15">
-        <v>1.6727260561992319E-5</v>
+        <v>2.1217994854948015E-4</v>
       </c>
       <c r="Q15">
-        <v>8.3116822668284813E-7</v>
+        <v>4.6319720086368459E-6</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2675,34 +3988,34 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.1558411334142406E-7</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.5844100684809888E-6</v>
+        <v>1.425222156503645E-6</v>
       </c>
       <c r="K16">
-        <v>1.3371418846760321E-4</v>
+        <v>3.7946539916909547E-5</v>
       </c>
       <c r="L16">
-        <v>1.7337130248320858E-3</v>
+        <v>6.4847608120915847E-4</v>
       </c>
       <c r="M16">
-        <v>1.3261392952753177E-2</v>
+        <v>8.2730583129645326E-3</v>
       </c>
       <c r="N16">
-        <v>2.0097024345021256E-2</v>
+        <v>2.4774102288194173E-2</v>
       </c>
       <c r="O16">
-        <v>1.6023884450161959E-3</v>
+        <v>2.4404435291351039E-2</v>
       </c>
       <c r="P16">
-        <v>1.4025963825273062E-5</v>
+        <v>2.2518510072757592E-4</v>
       </c>
       <c r="Q16">
-        <v>5.1948014167678009E-7</v>
+        <v>4.2756664695109352E-6</v>
       </c>
       <c r="R16">
-        <v>3.1168808500606803E-7</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2734,34 +4047,34 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.0779205667071203E-7</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.1038902101577695E-6</v>
+        <v>2.315986004318423E-6</v>
       </c>
       <c r="K17">
-        <v>1.3277912421258498E-4</v>
+        <v>4.2222206386420483E-5</v>
       </c>
       <c r="L17">
-        <v>1.9201024996657145E-3</v>
+        <v>6.9087644036514191E-4</v>
       </c>
       <c r="M17">
-        <v>1.3928093766581157E-2</v>
+        <v>8.5755617156824324E-3</v>
       </c>
       <c r="N17">
-        <v>1.9437492357148416E-2</v>
+        <v>2.5000178152769562E-2</v>
       </c>
       <c r="O17">
-        <v>1.685920851797822E-3</v>
+        <v>2.462195982298741E-2</v>
       </c>
       <c r="P17">
-        <v>1.3506483683596282E-5</v>
+        <v>2.7007959865744073E-4</v>
       </c>
       <c r="Q17">
-        <v>5.1948014167678009E-7</v>
+        <v>5.3445830868886692E-6</v>
       </c>
       <c r="R17">
-        <v>3.1168808500606803E-7</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2793,34 +4106,34 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.3896086517131883E-6</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.2987003541919502E-5</v>
+        <v>8.9076384781477809E-7</v>
       </c>
       <c r="K18">
-        <v>1.5012976094458944E-4</v>
+        <v>4.5428956238553685E-5</v>
       </c>
       <c r="L18">
-        <v>2.0597387617484332E-3</v>
+        <v>6.9657732899115646E-4</v>
       </c>
       <c r="M18">
-        <v>1.4446950532087924E-2</v>
+        <v>8.6651725587725981E-3</v>
       </c>
       <c r="N18">
-        <v>1.8714272103906002E-2</v>
+        <v>2.4814186661345838E-2</v>
       </c>
       <c r="O18">
-        <v>1.9014012145653503E-3</v>
+        <v>2.4880815797162382E-2</v>
       </c>
       <c r="P18">
-        <v>2.3064918290449037E-5</v>
+        <v>3.523861781955262E-4</v>
       </c>
       <c r="Q18">
-        <v>2.0779205667071203E-7</v>
+        <v>5.3445830868886692E-6</v>
       </c>
       <c r="R18">
-        <v>2.0779205667071203E-7</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2852,31 +4165,31 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.350642550182041E-7</v>
+        <v>8.9076384781477809E-7</v>
       </c>
       <c r="J19">
-        <v>1.3194795598590214E-5</v>
+        <v>8.9076384781477809E-7</v>
       </c>
       <c r="K19">
-        <v>1.6571416519489283E-4</v>
+        <v>4.8813858860249841E-5</v>
       </c>
       <c r="L19">
-        <v>2.1974009992927796E-3</v>
+        <v>7.1047324501706706E-4</v>
       </c>
       <c r="M19">
-        <v>1.4352301250274415E-2</v>
+        <v>8.5016283163138057E-3</v>
       </c>
       <c r="N19">
-        <v>1.748674052912377E-2</v>
+        <v>2.4505091606154109E-2</v>
       </c>
       <c r="O19">
-        <v>2.3234268816635668E-3</v>
+        <v>2.5625138068396412E-2</v>
       </c>
       <c r="P19">
-        <v>2.5246734885491512E-5</v>
+        <v>4.5357695130728503E-4</v>
       </c>
       <c r="Q19">
-        <v>1.4545443966949843E-6</v>
+        <v>6.0571941651404915E-6</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2911,31 +4224,31 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.3116822668284813E-7</v>
+        <v>8.9076384781477809E-7</v>
       </c>
       <c r="J20">
-        <v>1.6207780420315539E-5</v>
+        <v>1.7815276956295562E-7</v>
       </c>
       <c r="K20">
-        <v>2.0986997723741914E-4</v>
+        <v>4.2222206386420483E-5</v>
       </c>
       <c r="L20">
-        <v>2.3030632601098366E-3</v>
+        <v>6.6112492784812832E-4</v>
       </c>
       <c r="M20">
-        <v>1.4158327365372305E-2</v>
+        <v>8.0200813801851369E-3</v>
       </c>
       <c r="N20">
-        <v>1.7074065504575738E-2</v>
+        <v>2.3708392420668571E-2</v>
       </c>
       <c r="O20">
-        <v>3.0492445356143636E-3</v>
+        <v>2.6719886837360773E-2</v>
       </c>
       <c r="P20">
-        <v>4.0311658994118132E-5</v>
+        <v>5.478197664060885E-4</v>
       </c>
       <c r="Q20">
-        <v>9.350642550182041E-7</v>
+        <v>1.2114388330280983E-5</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2967,34 +4280,34 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.0779205667071203E-7</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.2857126233778323E-6</v>
+        <v>2.1378332347554676E-6</v>
       </c>
       <c r="J21">
-        <v>2.1818165950424762E-5</v>
+        <v>2.6722915434443346E-6</v>
       </c>
       <c r="K21">
-        <v>2.4374008247474521E-4</v>
+        <v>5.4692900255827375E-5</v>
       </c>
       <c r="L21">
-        <v>2.4666995047380224E-3</v>
+        <v>9.1160772185364396E-4</v>
       </c>
       <c r="M21">
-        <v>1.393224960771457E-2</v>
+        <v>1.0217417639974632E-2</v>
       </c>
       <c r="N21">
-        <v>1.453921020524972E-2</v>
+        <v>2.9767546266274255E-2</v>
       </c>
       <c r="O21">
-        <v>3.87262056017206E-3</v>
+        <v>3.7173535049775885E-2</v>
       </c>
       <c r="P21">
-        <v>6.3896057426243949E-5</v>
+        <v>8.5246100235874265E-4</v>
       </c>
       <c r="Q21">
-        <v>6.2337617001213607E-7</v>
+        <v>3.1354887443080188E-5</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -3032,28 +4345,28 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.1558411334142406E-7</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>6.9610338984688529E-6</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.3579210903431031E-4</v>
+        <v>2.315986004318423E-6</v>
       </c>
       <c r="M22">
-        <v>1.1732978479911756E-3</v>
+        <v>3.1354887443080188E-5</v>
       </c>
       <c r="N22">
-        <v>1.3474275914812323E-3</v>
+        <v>4.8279400551560978E-5</v>
       </c>
       <c r="O22">
-        <v>5.3475285784207742E-4</v>
+        <v>3.2601956830020877E-5</v>
       </c>
       <c r="P22">
-        <v>6.545449785127429E-6</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.0389602833535602E-7</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -3068,8 +4381,1322 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0CDA4D-7BA8-4DC8-886F-FE71A477D325}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.330030571861053E-6</v>
+      </c>
+      <c r="K2">
+        <v>4.3891008871414749E-5</v>
+      </c>
+      <c r="L2">
+        <v>7.0059360372780972E-4</v>
+      </c>
+      <c r="M2">
+        <v>5.2498523388975534E-3</v>
+      </c>
+      <c r="N2">
+        <v>2.154926616117377E-2</v>
+      </c>
+      <c r="O2">
+        <v>1.8261319751652258E-3</v>
+      </c>
+      <c r="P2">
+        <v>1.2081111027737898E-5</v>
+      </c>
+      <c r="Q2">
+        <v>3.8792558345947382E-6</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.330030571861053E-6</v>
+      </c>
+      <c r="K3">
+        <v>2.5381416746348429E-5</v>
+      </c>
+      <c r="L3">
+        <v>4.4955033328903591E-4</v>
+      </c>
+      <c r="M3">
+        <v>3.4280429630908758E-3</v>
+      </c>
+      <c r="N3">
+        <v>1.3184703894739608E-2</v>
+      </c>
+      <c r="O3">
+        <v>1.5746453612024984E-3</v>
+      </c>
+      <c r="P3">
+        <v>9.975229288957897E-6</v>
+      </c>
+      <c r="Q3">
+        <v>3.4359123106410536E-6</v>
+      </c>
+      <c r="R3">
+        <v>3.3250764296526326E-7</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.5517023338378952E-6</v>
+      </c>
+      <c r="K4">
+        <v>4.4888531800310543E-5</v>
+      </c>
+      <c r="L4">
+        <v>7.1511310413729283E-4</v>
+      </c>
+      <c r="M4">
+        <v>5.9861350963036344E-3</v>
+      </c>
+      <c r="N4">
+        <v>2.2451470232419519E-2</v>
+      </c>
+      <c r="O4">
+        <v>3.8460050702982117E-3</v>
+      </c>
+      <c r="P4">
+        <v>1.8952935649020007E-5</v>
+      </c>
+      <c r="Q4">
+        <v>3.9900917155831591E-6</v>
+      </c>
+      <c r="R4">
+        <v>6.6501528593052652E-7</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.9950458577915796E-6</v>
+      </c>
+      <c r="K5">
+        <v>4.3336829466472646E-5</v>
+      </c>
+      <c r="L5">
+        <v>7.2697254340305388E-4</v>
+      </c>
+      <c r="M5">
+        <v>6.2912662766647573E-3</v>
+      </c>
+      <c r="N5">
+        <v>2.2793288089387808E-2</v>
+      </c>
+      <c r="O5">
+        <v>5.5211785755572076E-3</v>
+      </c>
+      <c r="P5">
+        <v>2.0837145625823165E-5</v>
+      </c>
+      <c r="Q5">
+        <v>5.2092864064557912E-6</v>
+      </c>
+      <c r="R5">
+        <v>1.5517023338378952E-6</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.1083588098842109E-6</v>
+      </c>
+      <c r="K6">
+        <v>4.4888531800310543E-5</v>
+      </c>
+      <c r="L6">
+        <v>7.3994034147869918E-4</v>
+      </c>
+      <c r="M6">
+        <v>6.6574680274505008E-3</v>
+      </c>
+      <c r="N6">
+        <v>2.3583658756716239E-2</v>
+      </c>
+      <c r="O6">
+        <v>7.8034002009897867E-3</v>
+      </c>
+      <c r="P6">
+        <v>3.0036523747862115E-5</v>
+      </c>
+      <c r="Q6">
+        <v>5.652629930409475E-6</v>
+      </c>
+      <c r="R6">
+        <v>2.2167176197684219E-6</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7.7585116691894758E-7</v>
+      </c>
+      <c r="K7">
+        <v>4.2228470656588433E-5</v>
+      </c>
+      <c r="L7">
+        <v>7.1500226825630439E-4</v>
+      </c>
+      <c r="M7">
+        <v>6.8987577403622933E-3</v>
+      </c>
+      <c r="N7">
+        <v>2.3702918164659779E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.0298870061444088E-2</v>
+      </c>
+      <c r="P7">
+        <v>4.6218562372171594E-5</v>
+      </c>
+      <c r="Q7">
+        <v>6.7609887402936862E-6</v>
+      </c>
+      <c r="R7">
+        <v>2.3275535007568428E-6</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.5417940494210547E-7</v>
+      </c>
+      <c r="K8">
+        <v>3.8681722464958956E-5</v>
+      </c>
+      <c r="L8">
+        <v>6.9449763027344658E-4</v>
+      </c>
+      <c r="M8">
+        <v>7.0901713068292965E-3</v>
+      </c>
+      <c r="N8">
+        <v>2.3381937453317313E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.2806975212331068E-2</v>
+      </c>
+      <c r="P8">
+        <v>5.342289463641896E-5</v>
+      </c>
+      <c r="Q8">
+        <v>1.0307736931923162E-5</v>
+      </c>
+      <c r="R8">
+        <v>2.6600611437221061E-6</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.7585116691894758E-7</v>
+      </c>
+      <c r="K9">
+        <v>3.7130020131121066E-5</v>
+      </c>
+      <c r="L9">
+        <v>6.8374654981756967E-4</v>
+      </c>
+      <c r="M9">
+        <v>7.2492207960476816E-3</v>
+      </c>
+      <c r="N9">
+        <v>2.3476812967443399E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.5713313683609446E-2</v>
+      </c>
+      <c r="P9">
+        <v>7.6809265524975816E-5</v>
+      </c>
+      <c r="Q9">
+        <v>8.534362836108423E-6</v>
+      </c>
+      <c r="R9">
+        <v>4.1009275965715801E-6</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2.2167176197684218E-7</v>
+      </c>
+      <c r="K10">
+        <v>3.7795035417051588E-5</v>
+      </c>
+      <c r="L10">
+        <v>6.4395646854272653E-4</v>
+      </c>
+      <c r="M10">
+        <v>7.089173783900401E-3</v>
+      </c>
+      <c r="N10">
+        <v>2.2692316601807358E-2</v>
+      </c>
+      <c r="O10">
+        <v>1.8154806470022385E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.0529408693900004E-4</v>
+      </c>
+      <c r="Q10">
+        <v>1.1859439265761056E-5</v>
+      </c>
+      <c r="R10">
+        <v>4.4334352395368438E-6</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2.2167176197684218E-7</v>
+      </c>
+      <c r="K11">
+        <v>3.1477390200711589E-5</v>
+      </c>
+      <c r="L11">
+        <v>6.0948650955532752E-4</v>
+      </c>
+      <c r="M11">
+        <v>6.9010852938630506E-3</v>
+      </c>
+      <c r="N11">
+        <v>2.2323676461639869E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.0367644833956214E-2</v>
+      </c>
+      <c r="P11">
+        <v>1.4331079411802845E-4</v>
+      </c>
+      <c r="Q11">
+        <v>1.4076156885529479E-5</v>
+      </c>
+      <c r="R11">
+        <v>5.652629930409475E-6</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2.6822283199197903E-5</v>
+      </c>
+      <c r="L12">
+        <v>5.4442584741512437E-4</v>
+      </c>
+      <c r="M12">
+        <v>6.4838990378226335E-3</v>
+      </c>
+      <c r="N12">
+        <v>2.214800159027322E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.2086155168681683E-2</v>
+      </c>
+      <c r="P12">
+        <v>1.8720180298944321E-4</v>
+      </c>
+      <c r="Q12">
+        <v>1.6071202743321056E-5</v>
+      </c>
+      <c r="R12">
+        <v>2.6600611437221061E-6</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2.2167176197684218E-7</v>
+      </c>
+      <c r="K13">
+        <v>2.4716401460417903E-5</v>
+      </c>
+      <c r="L13">
+        <v>5.5916701958658437E-4</v>
+      </c>
+      <c r="M13">
+        <v>6.6221113814151945E-3</v>
+      </c>
+      <c r="N13">
+        <v>2.182513666895395E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.380056457581058E-2</v>
+      </c>
+      <c r="P13">
+        <v>2.0349467749474111E-4</v>
+      </c>
+      <c r="Q13">
+        <v>1.7733740958147375E-5</v>
+      </c>
+      <c r="R13">
+        <v>3.3250764296526326E-6</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3.3250764296526326E-7</v>
+      </c>
+      <c r="K14">
+        <v>3.0147359628850535E-5</v>
+      </c>
+      <c r="L14">
+        <v>6.3653046451650225E-4</v>
+      </c>
+      <c r="M14">
+        <v>7.4320999996785762E-3</v>
+      </c>
+      <c r="N14">
+        <v>2.3638965861329461E-2</v>
+      </c>
+      <c r="O14">
+        <v>2.5077172253035213E-2</v>
+      </c>
+      <c r="P14">
+        <v>2.160191320464327E-4</v>
+      </c>
+      <c r="Q14">
+        <v>2.2278012078672639E-5</v>
+      </c>
+      <c r="R14">
+        <v>2.2167176197684219E-6</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4.4334352395368437E-7</v>
+      </c>
+      <c r="K15">
+        <v>3.2696584891584221E-5</v>
+      </c>
+      <c r="L15">
+        <v>7.1688647823310754E-4</v>
+      </c>
+      <c r="M15">
+        <v>8.0739505864825221E-3</v>
+      </c>
+      <c r="N15">
+        <v>2.5081938195917714E-2</v>
+      </c>
+      <c r="O15">
+        <v>2.641595885949435E-2</v>
+      </c>
+      <c r="P15">
+        <v>2.5004574750987795E-4</v>
+      </c>
+      <c r="Q15">
+        <v>1.7179561553205269E-5</v>
+      </c>
+      <c r="R15">
+        <v>1.8842099768031584E-6</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3.3250764296526326E-7</v>
+      </c>
+      <c r="K16">
+        <v>3.4026615463445273E-5</v>
+      </c>
+      <c r="L16">
+        <v>7.7906540746761185E-4</v>
+      </c>
+      <c r="M16">
+        <v>8.2294533275092778E-3</v>
+      </c>
+      <c r="N16">
+        <v>2.4887310388902049E-2</v>
+      </c>
+      <c r="O16">
+        <v>2.5906335478709592E-2</v>
+      </c>
+      <c r="P16">
+        <v>2.7764388187599481E-4</v>
+      </c>
+      <c r="Q16">
+        <v>1.5627859219367372E-5</v>
+      </c>
+      <c r="R16">
+        <v>1.6625382148263163E-6</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.2191946908726319E-6</v>
+      </c>
+      <c r="K17">
+        <v>3.5689153678271589E-5</v>
+      </c>
+      <c r="L17">
+        <v>8.5886724177927502E-4</v>
+      </c>
+      <c r="M17">
+        <v>8.5004470565259675E-3</v>
+      </c>
+      <c r="N17">
+        <v>2.501831840023036E-2</v>
+      </c>
+      <c r="O17">
+        <v>2.6230862938243688E-2</v>
+      </c>
+      <c r="P17">
+        <v>3.233082648432243E-4</v>
+      </c>
+      <c r="Q17">
+        <v>2.1058817387800007E-5</v>
+      </c>
+      <c r="R17">
+        <v>8.8668704790736873E-7</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6.6501528593052652E-7</v>
+      </c>
+      <c r="K18">
+        <v>3.546748191629475E-5</v>
+      </c>
+      <c r="L18">
+        <v>8.7782017742829501E-4</v>
+      </c>
+      <c r="M18">
+        <v>8.5300402367498758E-3</v>
+      </c>
+      <c r="N18">
+        <v>2.4954366096900042E-2</v>
+      </c>
+      <c r="O18">
+        <v>2.6724193444523151E-2</v>
+      </c>
+      <c r="P18">
+        <v>3.9645994629558225E-4</v>
+      </c>
+      <c r="Q18">
+        <v>2.4273057936464219E-5</v>
+      </c>
+      <c r="R18">
+        <v>7.7585116691894758E-7</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>3.3250764296526326E-7</v>
+      </c>
+      <c r="J19">
+        <v>1.1083588098842109E-6</v>
+      </c>
+      <c r="K19">
+        <v>3.546748191629475E-5</v>
+      </c>
+      <c r="L19">
+        <v>8.5831306237433289E-4</v>
+      </c>
+      <c r="M19">
+        <v>8.5100897781719594E-3</v>
+      </c>
+      <c r="N19">
+        <v>2.4612880747574718E-2</v>
+      </c>
+      <c r="O19">
+        <v>2.7526977730522283E-2</v>
+      </c>
+      <c r="P19">
+        <v>5.110642472376096E-4</v>
+      </c>
+      <c r="Q19">
+        <v>2.8595657295012641E-5</v>
+      </c>
+      <c r="R19">
+        <v>8.8668704790736873E-7</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>5.5417940494210547E-7</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>3.0923210795769486E-5</v>
+      </c>
+      <c r="L20">
+        <v>8.0544434714285601E-4</v>
+      </c>
+      <c r="M20">
+        <v>8.1659443677029112E-3</v>
+      </c>
+      <c r="N20">
+        <v>2.4261531004841422E-2</v>
+      </c>
+      <c r="O20">
+        <v>2.8825087568658671E-2</v>
+      </c>
+      <c r="P20">
+        <v>6.6556946533546859E-4</v>
+      </c>
+      <c r="Q20">
+        <v>3.1477390200711589E-5</v>
+      </c>
+      <c r="R20">
+        <v>2.2167176197684219E-6</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2.2167176197684218E-7</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>5.6747971066071599E-5</v>
+      </c>
+      <c r="L21">
+        <v>1.1310801654868371E-3</v>
+      </c>
+      <c r="M21">
+        <v>1.0692226603071994E-2</v>
+      </c>
+      <c r="N21">
+        <v>3.0049934889461713E-2</v>
+      </c>
+      <c r="O21">
+        <v>3.9554111684218823E-2</v>
+      </c>
+      <c r="P21">
+        <v>1.073112999729893E-3</v>
+      </c>
+      <c r="Q21">
+        <v>8.0356013716605286E-5</v>
+      </c>
+      <c r="R21">
+        <v>1.4408664528494742E-6</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1.1083588098842109E-6</v>
+      </c>
+      <c r="M22">
+        <v>1.2524454551691582E-5</v>
+      </c>
+      <c r="N22">
+        <v>1.1416095741807373E-5</v>
+      </c>
+      <c r="O22">
+        <v>6.8718246212821071E-6</v>
+      </c>
+      <c r="P22">
+        <v>2.5492252627336852E-6</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3160,37 +5787,37 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.7145981541301085E-8</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.0743357046608174E-6</v>
       </c>
       <c r="J2">
-        <v>2.85044431300729E-6</v>
+        <v>2.4844013170281402E-5</v>
       </c>
       <c r="K2">
-        <v>3.7412081608220683E-5</v>
+        <v>6.7132552344992833E-4</v>
       </c>
       <c r="L2">
-        <v>8.5976526591082382E-4</v>
+        <v>9.9603677558550621E-3</v>
       </c>
       <c r="M2">
-        <v>7.8820129837738461E-3</v>
+        <v>6.6171894787081437E-2</v>
       </c>
       <c r="N2">
-        <v>3.2609082940803398E-2</v>
+        <v>0.26924873852844478</v>
       </c>
       <c r="O2">
-        <v>2.7619023865345011E-3</v>
+        <v>1.755430968425005E-2</v>
       </c>
       <c r="P2">
-        <v>1.9418651882362163E-5</v>
+        <v>3.1122162444393057E-4</v>
       </c>
       <c r="Q2">
-        <v>2.1378332347554676E-6</v>
+        <v>8.3932476926626361E-5</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6.6474521725888082E-6</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -3222,34 +5849,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.3429196308260217E-7</v>
       </c>
       <c r="J3">
-        <v>8.9076384781477809E-7</v>
+        <v>5.4388245048453883E-6</v>
       </c>
       <c r="K3">
-        <v>1.6924513108480786E-5</v>
+        <v>1.1394673067558796E-4</v>
       </c>
       <c r="L3">
-        <v>3.9282685688631715E-4</v>
+        <v>1.4549862740184532E-3</v>
       </c>
       <c r="M3">
-        <v>3.8685873910595816E-3</v>
+        <v>9.6484075256141784E-3</v>
       </c>
       <c r="N3">
-        <v>1.5247739241354245E-2</v>
+        <v>3.1490592445110176E-2</v>
       </c>
       <c r="O3">
-        <v>1.9386584383840832E-3</v>
+        <v>2.1426282709829177E-3</v>
       </c>
       <c r="P3">
-        <v>7.4824163216441363E-6</v>
+        <v>3.9347545183202437E-5</v>
       </c>
       <c r="Q3">
-        <v>1.2470693869406894E-6</v>
+        <v>1.6316473514536166E-5</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>4.9016566525149798E-6</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -3281,34 +5908,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.3572990770650545E-7</v>
       </c>
       <c r="J4">
-        <v>1.425222156503645E-6</v>
+        <v>4.8345106709736788E-6</v>
       </c>
       <c r="K4">
-        <v>3.3136415138709747E-5</v>
+        <v>1.1267095702630323E-4</v>
       </c>
       <c r="L4">
-        <v>6.1516151330088577E-4</v>
+        <v>1.4081855248841665E-3</v>
       </c>
       <c r="M4">
-        <v>6.1826137149128121E-3</v>
+        <v>9.3050901219935058E-3</v>
       </c>
       <c r="N4">
-        <v>2.3756671821220134E-2</v>
+        <v>2.8189091678705942E-2</v>
       </c>
       <c r="O4">
-        <v>4.250190623463432E-3</v>
+        <v>1.825564946144894E-3</v>
       </c>
       <c r="P4">
-        <v>1.264884663896985E-5</v>
+        <v>3.5385932272265673E-5</v>
       </c>
       <c r="Q4">
-        <v>2.6722915434443346E-6</v>
+        <v>9.4004374157821533E-6</v>
       </c>
       <c r="R4">
-        <v>1.7815276956295562E-7</v>
+        <v>1.3429196308260218E-6</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -3340,37 +5967,37 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>6.0431383387170985E-7</v>
       </c>
       <c r="J5">
-        <v>5.3445830868886689E-7</v>
+        <v>6.5803061910475071E-6</v>
       </c>
       <c r="K5">
-        <v>3.5096095603902261E-5</v>
+        <v>9.5011563880941047E-5</v>
       </c>
       <c r="L5">
-        <v>5.9378318095333106E-4</v>
+        <v>1.2233997836825058E-3</v>
       </c>
       <c r="M5">
-        <v>6.344732735215102E-3</v>
+        <v>7.8689718687881566E-3</v>
       </c>
       <c r="N5">
-        <v>2.3265326482765501E-2</v>
+        <v>2.1782559287887322E-2</v>
       </c>
       <c r="O5">
-        <v>6.04988990158841E-3</v>
+        <v>1.3516486084263909E-3</v>
       </c>
       <c r="P5">
-        <v>1.6033749260666007E-5</v>
+        <v>2.0680962314720736E-5</v>
       </c>
       <c r="Q5">
-        <v>2.85044431300729E-6</v>
+        <v>3.2230071139824525E-6</v>
       </c>
       <c r="R5">
-        <v>5.3445830868886689E-7</v>
+        <v>2.0143794462390328E-7</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>6.7145981541301085E-8</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -3399,34 +6026,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.6858392616520434E-7</v>
       </c>
       <c r="J6">
-        <v>5.3445830868886689E-7</v>
+        <v>6.6474521725888082E-6</v>
       </c>
       <c r="K6">
-        <v>2.9929665286576545E-5</v>
+        <v>9.6018753604060558E-5</v>
       </c>
       <c r="L6">
-        <v>5.7008886260145799E-4</v>
+        <v>1.2264884988334058E-3</v>
       </c>
       <c r="M6">
-        <v>6.7104803711278494E-3</v>
+        <v>7.8068618358624539E-3</v>
       </c>
       <c r="N6">
-        <v>2.3632677493604315E-2</v>
+        <v>2.1287961987854098E-2</v>
       </c>
       <c r="O6">
-        <v>8.3359462406202567E-3</v>
+        <v>1.3695765854979183E-3</v>
       </c>
       <c r="P6">
-        <v>1.8527888034547384E-5</v>
+        <v>1.7927977071527391E-5</v>
       </c>
       <c r="Q6">
-        <v>3.384902621696157E-6</v>
+        <v>3.827320947854162E-6</v>
       </c>
       <c r="R6">
-        <v>3.5630553912591125E-7</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -3458,34 +6085,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.6858392616520434E-7</v>
       </c>
       <c r="J7">
-        <v>1.425222156503645E-6</v>
+        <v>4.0287588924780652E-6</v>
       </c>
       <c r="K7">
-        <v>3.1354887443080188E-5</v>
+        <v>1.0038324240424513E-4</v>
       </c>
       <c r="L7">
-        <v>5.4194072501051102E-4</v>
+        <v>1.2090305436326674E-3</v>
       </c>
       <c r="M7">
-        <v>6.8934432654690053E-3</v>
+        <v>7.7232650888435341E-3</v>
       </c>
       <c r="N7">
-        <v>2.3729058141937875E-2</v>
+        <v>2.097177156077611E-2</v>
       </c>
       <c r="O7">
-        <v>1.0738870796485403E-2</v>
+        <v>1.3997922771915039E-3</v>
       </c>
       <c r="P7">
-        <v>2.1200179577991719E-5</v>
+        <v>2.0076648480849025E-5</v>
       </c>
       <c r="Q7">
-        <v>2.85044431300729E-6</v>
+        <v>3.827320947854162E-6</v>
       </c>
       <c r="R7">
-        <v>3.5630553912591125E-7</v>
+        <v>5.3716785233040868E-7</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -3517,34 +6144,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.3572990770650545E-7</v>
       </c>
       <c r="J8">
-        <v>1.425222156503645E-6</v>
+        <v>3.827320947854162E-6</v>
       </c>
       <c r="K8">
-        <v>3.0285970825702458E-5</v>
+        <v>1.0461343924134709E-4</v>
       </c>
       <c r="L8">
-        <v>5.2270022589771185E-4</v>
+        <v>1.2330688050244533E-3</v>
       </c>
       <c r="M8">
-        <v>7.0728431044189011E-3</v>
+        <v>8.1276853356667903E-3</v>
       </c>
       <c r="N8">
-        <v>2.332482950779953E-2</v>
+        <v>2.164323137618912E-2</v>
       </c>
       <c r="O8">
-        <v>1.304915591217781E-2</v>
+        <v>1.5027270668943184E-3</v>
       </c>
       <c r="P8">
-        <v>3.6877623299531813E-5</v>
+        <v>1.9942356517766423E-5</v>
       </c>
       <c r="Q8">
-        <v>4.4538192390738905E-6</v>
+        <v>3.0215691693585489E-6</v>
       </c>
       <c r="R8">
-        <v>7.1261107825182249E-7</v>
+        <v>6.7145981541301091E-7</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -3579,31 +6206,31 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.7815276956295562E-6</v>
+        <v>5.0359486155975819E-6</v>
       </c>
       <c r="K9">
-        <v>3.3492720677835656E-5</v>
+        <v>9.7227381271803974E-5</v>
       </c>
       <c r="L9">
-        <v>5.169993372716972E-4</v>
+        <v>1.124426606890628E-3</v>
       </c>
       <c r="M9">
-        <v>7.1793784606175486E-3</v>
+        <v>7.7367614311333356E-3</v>
       </c>
       <c r="N9">
-        <v>2.3404107490255042E-2</v>
+        <v>2.1425141228142975E-2</v>
       </c>
       <c r="O9">
-        <v>1.5722872677778648E-2</v>
+        <v>1.6066690463202526E-3</v>
       </c>
       <c r="P9">
-        <v>5.6118122412331025E-5</v>
+        <v>2.1486714093216349E-5</v>
       </c>
       <c r="Q9">
-        <v>5.8790413955775353E-6</v>
+        <v>4.2301968371019684E-6</v>
       </c>
       <c r="R9">
-        <v>2.1378332347554676E-6</v>
+        <v>4.0287588924780656E-7</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -3638,31 +6265,31 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.4941387738813788E-6</v>
+        <v>3.827320947854162E-6</v>
       </c>
       <c r="K10">
-        <v>2.9929665286576545E-5</v>
+        <v>6.8824631079833617E-5</v>
       </c>
       <c r="L10">
-        <v>4.8243769997648384E-4</v>
+        <v>9.6327625119150542E-4</v>
       </c>
       <c r="M10">
-        <v>6.9166031255121895E-3</v>
+        <v>7.2812430923571486E-3</v>
       </c>
       <c r="N10">
-        <v>2.2680807245829444E-2</v>
+        <v>2.2138768719963925E-2</v>
       </c>
       <c r="O10">
-        <v>1.7847878913125583E-2</v>
+        <v>1.7372679804180831E-3</v>
       </c>
       <c r="P10">
-        <v>9.2995745711862838E-5</v>
+        <v>2.3031071668666275E-5</v>
       </c>
       <c r="Q10">
-        <v>4.9882775477627575E-6</v>
+        <v>2.7529852431933447E-6</v>
       </c>
       <c r="R10">
-        <v>1.425222156503645E-6</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -3694,34 +6321,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.0143794462390328E-7</v>
       </c>
       <c r="J11">
-        <v>1.0689166173777338E-6</v>
+        <v>3.2901530955237536E-6</v>
       </c>
       <c r="K11">
-        <v>2.6188457125754476E-5</v>
+        <v>6.4392996298107751E-5</v>
       </c>
       <c r="L11">
-        <v>4.3112970234235261E-4</v>
+        <v>9.6589494447161617E-4</v>
       </c>
       <c r="M11">
-        <v>6.7763968958661431E-3</v>
+        <v>7.634766685172099E-3</v>
       </c>
       <c r="N11">
-        <v>2.2254309515495729E-2</v>
+        <v>2.4867782847747023E-2</v>
       </c>
       <c r="O11">
-        <v>1.9900911429569085E-2</v>
+        <v>2.0418421526894248E-3</v>
       </c>
       <c r="P11">
-        <v>1.3040782732008351E-4</v>
+        <v>3.1894341232118018E-5</v>
       </c>
       <c r="Q11">
-        <v>6.0571941651404915E-6</v>
+        <v>4.9016566525149798E-6</v>
       </c>
       <c r="R11">
-        <v>2.315986004318423E-6</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -3753,34 +6380,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.3429196308260217E-7</v>
       </c>
       <c r="J12">
-        <v>1.7815276956295562E-7</v>
+        <v>3.3572990770650546E-6</v>
       </c>
       <c r="K12">
-        <v>2.7079220973569256E-5</v>
+        <v>7.5203499326257226E-5</v>
       </c>
       <c r="L12">
-        <v>4.1384888369474593E-4</v>
+        <v>1.0386811884623866E-3</v>
       </c>
       <c r="M12">
-        <v>6.4489521054094303E-3</v>
+        <v>7.5616447112736226E-3</v>
       </c>
       <c r="N12">
-        <v>2.2259475945813054E-2</v>
+        <v>2.0992586815053914E-2</v>
       </c>
       <c r="O12">
-        <v>2.1540273215087401E-2</v>
+        <v>1.683282611258877E-3</v>
       </c>
       <c r="P12">
-        <v>1.642568535370451E-4</v>
+        <v>2.6858392616520437E-5</v>
       </c>
       <c r="Q12">
-        <v>9.7984023259625589E-6</v>
+        <v>3.08871515089985E-6</v>
       </c>
       <c r="R12">
-        <v>2.315986004318423E-6</v>
+        <v>5.3716785233040868E-7</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -3812,34 +6439,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.3429196308260217E-7</v>
       </c>
       <c r="J13">
-        <v>2.6722915434443346E-6</v>
+        <v>3.4915910401476567E-6</v>
       </c>
       <c r="K13">
-        <v>2.6544762664880389E-5</v>
+        <v>8.7155484040608812E-5</v>
       </c>
       <c r="L13">
-        <v>4.3807766035530786E-4</v>
+        <v>1.2454908116095939E-3</v>
       </c>
       <c r="M13">
-        <v>6.6192661531116167E-3</v>
+        <v>8.5996544399205965E-3</v>
       </c>
       <c r="N13">
-        <v>2.188731481019604E-2</v>
+        <v>2.0370009274202971E-2</v>
       </c>
       <c r="O13">
-        <v>2.2609902443543387E-2</v>
+        <v>1.4062382914194688E-3</v>
       </c>
       <c r="P13">
-        <v>1.674636033891783E-4</v>
+        <v>2.9342793933548578E-5</v>
       </c>
       <c r="Q13">
-        <v>6.4134997042664023E-6</v>
+        <v>3.2230071139824525E-6</v>
       </c>
       <c r="R13">
-        <v>2.1378332347554676E-6</v>
+        <v>1.3429196308260217E-7</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -3871,34 +6498,34 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.3429196308260217E-7</v>
       </c>
       <c r="J14">
-        <v>1.6033749260666006E-6</v>
+        <v>3.8944669293954631E-6</v>
       </c>
       <c r="K14">
-        <v>3.3670873447398611E-5</v>
+        <v>1.0024895044116253E-4</v>
       </c>
       <c r="L14">
-        <v>5.2875742006285227E-4</v>
+        <v>1.3503056887955649E-3</v>
       </c>
       <c r="M14">
-        <v>7.4222006855318573E-3</v>
+        <v>9.2902508600728774E-3</v>
       </c>
       <c r="N14">
-        <v>2.3723179100542297E-2</v>
+        <v>2.045870911581903E-2</v>
       </c>
       <c r="O14">
-        <v>2.3928589243848386E-2</v>
+        <v>1.3593703963036407E-3</v>
       </c>
       <c r="P14">
-        <v>1.9293944943668095E-4</v>
+        <v>2.397111541024449E-5</v>
       </c>
       <c r="Q14">
-        <v>4.0975136999479798E-6</v>
+        <v>2.4172553354868394E-6</v>
       </c>
       <c r="R14">
-        <v>1.2470693869406894E-6</v>
+        <v>1.3429196308260217E-7</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -3930,34 +6557,34 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.0287588924780656E-7</v>
       </c>
       <c r="J15">
-        <v>1.2470693869406894E-6</v>
+        <v>5.2373865602214851E-6</v>
       </c>
       <c r="K15">
-        <v>3.5630553912591124E-5</v>
+        <v>1.108580155246881E-4</v>
       </c>
       <c r="L15">
-        <v>6.0981693021399709E-4</v>
+        <v>1.4342381657221912E-3</v>
       </c>
       <c r="M15">
-        <v>8.1271511946924731E-3</v>
+        <v>9.8031118670853356E-3</v>
       </c>
       <c r="N15">
-        <v>2.508978899585973E-2</v>
+        <v>2.0505979886824104E-2</v>
       </c>
       <c r="O15">
-        <v>2.5096558801103123E-2</v>
+        <v>1.3425167549367741E-3</v>
       </c>
       <c r="P15">
-        <v>2.1217994854948015E-4</v>
+        <v>3.135717337978761E-5</v>
       </c>
       <c r="Q15">
-        <v>4.6319720086368459E-6</v>
+        <v>3.2901530955237536E-6</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>6.7145981541301085E-8</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -3989,34 +6616,34 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.3429196308260217E-7</v>
       </c>
       <c r="J16">
-        <v>1.425222156503645E-6</v>
+        <v>4.7002187078910767E-6</v>
       </c>
       <c r="K16">
-        <v>3.7946539916909547E-5</v>
+        <v>1.0239762185048417E-4</v>
       </c>
       <c r="L16">
-        <v>6.4847608120915847E-4</v>
+        <v>1.4800988711148998E-3</v>
       </c>
       <c r="M16">
-        <v>8.2730583129645326E-3</v>
+        <v>9.934717990906285E-3</v>
       </c>
       <c r="N16">
-        <v>2.4774102288194173E-2</v>
+        <v>1.9711172903319724E-2</v>
       </c>
       <c r="O16">
-        <v>2.4404435291351039E-2</v>
+        <v>1.297461801322561E-3</v>
       </c>
       <c r="P16">
-        <v>2.2518510072757592E-4</v>
+        <v>3.0282837675126793E-5</v>
       </c>
       <c r="Q16">
-        <v>4.2756664695109352E-6</v>
+        <v>5.5731164679279904E-6</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>6.7145981541301085E-8</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -4051,31 +6678,31 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2.315986004318423E-6</v>
+        <v>6.0431383387170978E-6</v>
       </c>
       <c r="K17">
-        <v>4.2222206386420483E-5</v>
+        <v>1.0380768746285149E-4</v>
       </c>
       <c r="L17">
-        <v>6.9087644036514191E-4</v>
+        <v>1.6041846450032243E-3</v>
       </c>
       <c r="M17">
-        <v>8.5755617156824324E-3</v>
+        <v>1.0347531485422204E-2</v>
       </c>
       <c r="N17">
-        <v>2.5000178152769562E-2</v>
+        <v>1.9565667561319725E-2</v>
       </c>
       <c r="O17">
-        <v>2.462195982298741E-2</v>
+        <v>1.3993222553207148E-3</v>
       </c>
       <c r="P17">
-        <v>2.7007959865744073E-4</v>
+        <v>2.766414439501605E-5</v>
       </c>
       <c r="Q17">
-        <v>5.3445830868886692E-6</v>
+        <v>4.5659267448084745E-6</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>3.3572990770650545E-7</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -4107,31 +6734,31 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>9.4004374157821525E-7</v>
       </c>
       <c r="J18">
-        <v>8.9076384781477809E-7</v>
+        <v>9.4675833973234544E-6</v>
       </c>
       <c r="K18">
-        <v>4.5428956238553685E-5</v>
+        <v>1.1972128508813985E-4</v>
       </c>
       <c r="L18">
-        <v>6.9657732899115646E-4</v>
+        <v>1.697114683456385E-3</v>
       </c>
       <c r="M18">
-        <v>8.6651725587725981E-3</v>
+        <v>1.0622964301704622E-2</v>
       </c>
       <c r="N18">
-        <v>2.4814186661345838E-2</v>
+        <v>1.867464038626666E-2</v>
       </c>
       <c r="O18">
-        <v>2.4880815797162382E-2</v>
+        <v>1.5479834584531554E-3</v>
       </c>
       <c r="P18">
-        <v>3.523861781955262E-4</v>
+        <v>3.0820005527457201E-5</v>
       </c>
       <c r="Q18">
-        <v>5.3445830868886692E-6</v>
+        <v>3.4915910401476567E-6</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -4163,37 +6790,37 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.0143794462390328E-7</v>
       </c>
       <c r="I19">
-        <v>8.9076384781477809E-7</v>
+        <v>1.9472334646977316E-6</v>
       </c>
       <c r="J19">
-        <v>8.9076384781477809E-7</v>
+        <v>6.7817441356714103E-6</v>
       </c>
       <c r="K19">
-        <v>4.8813858860249841E-5</v>
+        <v>1.2307858416520489E-4</v>
       </c>
       <c r="L19">
-        <v>7.1047324501706706E-4</v>
+        <v>1.7700352194102381E-3</v>
       </c>
       <c r="M19">
-        <v>8.5016283163138057E-3</v>
+        <v>1.060993798128561E-2</v>
       </c>
       <c r="N19">
-        <v>2.4505091606154109E-2</v>
+        <v>1.7595403024953327E-2</v>
       </c>
       <c r="O19">
-        <v>2.5625138068396412E-2</v>
+        <v>1.8876749790705976E-3</v>
       </c>
       <c r="P19">
-        <v>4.5357695130728503E-4</v>
+        <v>3.4781618438393965E-5</v>
       </c>
       <c r="Q19">
-        <v>6.0571941651404915E-6</v>
+        <v>3.9616129109367642E-6</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>6.7145981541301085E-8</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -4222,34 +6849,34 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.0143794462390328E-7</v>
       </c>
       <c r="I20">
-        <v>8.9076384781477809E-7</v>
+        <v>8.7289776003691419E-7</v>
       </c>
       <c r="J20">
-        <v>1.7815276956295562E-7</v>
+        <v>5.5059704863866894E-6</v>
       </c>
       <c r="K20">
-        <v>4.2222206386420483E-5</v>
+        <v>1.4597536387078857E-4</v>
       </c>
       <c r="L20">
-        <v>6.6112492784812832E-4</v>
+        <v>1.8361068652468784E-3</v>
       </c>
       <c r="M20">
-        <v>8.0200813801851369E-3</v>
+        <v>1.0561660020557414E-2</v>
       </c>
       <c r="N20">
-        <v>2.3708392420668571E-2</v>
+        <v>1.8077846902327575E-2</v>
       </c>
       <c r="O20">
-        <v>2.6719886837360773E-2</v>
+        <v>2.5972065660175262E-3</v>
       </c>
       <c r="P20">
-        <v>5.478197664060885E-4</v>
+        <v>4.9083712506691096E-5</v>
       </c>
       <c r="Q20">
-        <v>1.2114388330280983E-5</v>
+        <v>2.4844013170281404E-6</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -4284,31 +6911,31 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.1378332347554676E-6</v>
+        <v>6.0431383387170985E-7</v>
       </c>
       <c r="J21">
-        <v>2.6722915434443346E-6</v>
+        <v>7.587495914167023E-6</v>
       </c>
       <c r="K21">
-        <v>5.4692900255827375E-5</v>
+        <v>1.5732303475126844E-4</v>
       </c>
       <c r="L21">
-        <v>9.1160772185364396E-4</v>
+        <v>1.8562506597092686E-3</v>
       </c>
       <c r="M21">
-        <v>1.0217417639974632E-2</v>
+        <v>9.5922063390641091E-3</v>
       </c>
       <c r="N21">
-        <v>2.9767546266274255E-2</v>
+        <v>1.2152751199160084E-2</v>
       </c>
       <c r="O21">
-        <v>3.7173535049775885E-2</v>
+        <v>3.4237735987909428E-3</v>
       </c>
       <c r="P21">
-        <v>8.5246100235874265E-4</v>
+        <v>7.110759445223785E-5</v>
       </c>
       <c r="Q21">
-        <v>3.1354887443080188E-5</v>
+        <v>2.8201312247346457E-6</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -4346,25 +6973,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.7145981541301085E-8</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5.2373865602214851E-6</v>
       </c>
       <c r="L22">
-        <v>2.315986004318423E-6</v>
+        <v>1.0011465847807992E-4</v>
       </c>
       <c r="M22">
-        <v>3.1354887443080188E-5</v>
+        <v>7.3222692870788836E-4</v>
       </c>
       <c r="N22">
-        <v>4.8279400551560978E-5</v>
+        <v>9.1499829046330996E-4</v>
       </c>
       <c r="O22">
-        <v>3.2601956830020877E-5</v>
+        <v>4.3436735459067676E-4</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.1318534896169491E-6</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -4382,1322 +7009,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2FFB6E-DFF9-4CC7-BCFB-206087F41C04}">
-  <dimension ref="A1:S22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1.330030571861053E-6</v>
-      </c>
-      <c r="K2">
-        <v>4.3891008871414749E-5</v>
-      </c>
-      <c r="L2">
-        <v>7.0059360372780972E-4</v>
-      </c>
-      <c r="M2">
-        <v>5.2498523388975534E-3</v>
-      </c>
-      <c r="N2">
-        <v>2.154926616117377E-2</v>
-      </c>
-      <c r="O2">
-        <v>1.8261319751652258E-3</v>
-      </c>
-      <c r="P2">
-        <v>1.2081111027737898E-5</v>
-      </c>
-      <c r="Q2">
-        <v>3.8792558345947382E-6</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1.330030571861053E-6</v>
-      </c>
-      <c r="K3">
-        <v>2.5381416746348429E-5</v>
-      </c>
-      <c r="L3">
-        <v>4.4955033328903591E-4</v>
-      </c>
-      <c r="M3">
-        <v>3.4280429630908758E-3</v>
-      </c>
-      <c r="N3">
-        <v>1.3184703894739608E-2</v>
-      </c>
-      <c r="O3">
-        <v>1.5746453612024984E-3</v>
-      </c>
-      <c r="P3">
-        <v>9.975229288957897E-6</v>
-      </c>
-      <c r="Q3">
-        <v>3.4359123106410536E-6</v>
-      </c>
-      <c r="R3">
-        <v>3.3250764296526326E-7</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1.5517023338378952E-6</v>
-      </c>
-      <c r="K4">
-        <v>4.4888531800310543E-5</v>
-      </c>
-      <c r="L4">
-        <v>7.1511310413729283E-4</v>
-      </c>
-      <c r="M4">
-        <v>5.9861350963036344E-3</v>
-      </c>
-      <c r="N4">
-        <v>2.2451470232419519E-2</v>
-      </c>
-      <c r="O4">
-        <v>3.8460050702982117E-3</v>
-      </c>
-      <c r="P4">
-        <v>1.8952935649020007E-5</v>
-      </c>
-      <c r="Q4">
-        <v>3.9900917155831591E-6</v>
-      </c>
-      <c r="R4">
-        <v>6.6501528593052652E-7</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1.9950458577915796E-6</v>
-      </c>
-      <c r="K5">
-        <v>4.3336829466472646E-5</v>
-      </c>
-      <c r="L5">
-        <v>7.2697254340305388E-4</v>
-      </c>
-      <c r="M5">
-        <v>6.2912662766647573E-3</v>
-      </c>
-      <c r="N5">
-        <v>2.2793288089387808E-2</v>
-      </c>
-      <c r="O5">
-        <v>5.5211785755572076E-3</v>
-      </c>
-      <c r="P5">
-        <v>2.0837145625823165E-5</v>
-      </c>
-      <c r="Q5">
-        <v>5.2092864064557912E-6</v>
-      </c>
-      <c r="R5">
-        <v>1.5517023338378952E-6</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1.1083588098842109E-6</v>
-      </c>
-      <c r="K6">
-        <v>4.4888531800310543E-5</v>
-      </c>
-      <c r="L6">
-        <v>7.3994034147869918E-4</v>
-      </c>
-      <c r="M6">
-        <v>6.6574680274505008E-3</v>
-      </c>
-      <c r="N6">
-        <v>2.3583658756716239E-2</v>
-      </c>
-      <c r="O6">
-        <v>7.8034002009897867E-3</v>
-      </c>
-      <c r="P6">
-        <v>3.0036523747862115E-5</v>
-      </c>
-      <c r="Q6">
-        <v>5.652629930409475E-6</v>
-      </c>
-      <c r="R6">
-        <v>2.2167176197684219E-6</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>7.7585116691894758E-7</v>
-      </c>
-      <c r="K7">
-        <v>4.2228470656588433E-5</v>
-      </c>
-      <c r="L7">
-        <v>7.1500226825630439E-4</v>
-      </c>
-      <c r="M7">
-        <v>6.8987577403622933E-3</v>
-      </c>
-      <c r="N7">
-        <v>2.3702918164659779E-2</v>
-      </c>
-      <c r="O7">
-        <v>1.0298870061444088E-2</v>
-      </c>
-      <c r="P7">
-        <v>4.6218562372171594E-5</v>
-      </c>
-      <c r="Q7">
-        <v>6.7609887402936862E-6</v>
-      </c>
-      <c r="R7">
-        <v>2.3275535007568428E-6</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>5.5417940494210547E-7</v>
-      </c>
-      <c r="K8">
-        <v>3.8681722464958956E-5</v>
-      </c>
-      <c r="L8">
-        <v>6.9449763027344658E-4</v>
-      </c>
-      <c r="M8">
-        <v>7.0901713068292965E-3</v>
-      </c>
-      <c r="N8">
-        <v>2.3381937453317313E-2</v>
-      </c>
-      <c r="O8">
-        <v>1.2806975212331068E-2</v>
-      </c>
-      <c r="P8">
-        <v>5.342289463641896E-5</v>
-      </c>
-      <c r="Q8">
-        <v>1.0307736931923162E-5</v>
-      </c>
-      <c r="R8">
-        <v>2.6600611437221061E-6</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>7.7585116691894758E-7</v>
-      </c>
-      <c r="K9">
-        <v>3.7130020131121066E-5</v>
-      </c>
-      <c r="L9">
-        <v>6.8374654981756967E-4</v>
-      </c>
-      <c r="M9">
-        <v>7.2492207960476816E-3</v>
-      </c>
-      <c r="N9">
-        <v>2.3476812967443399E-2</v>
-      </c>
-      <c r="O9">
-        <v>1.5713313683609446E-2</v>
-      </c>
-      <c r="P9">
-        <v>7.6809265524975816E-5</v>
-      </c>
-      <c r="Q9">
-        <v>8.534362836108423E-6</v>
-      </c>
-      <c r="R9">
-        <v>4.1009275965715801E-6</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>2.2167176197684218E-7</v>
-      </c>
-      <c r="K10">
-        <v>3.7795035417051588E-5</v>
-      </c>
-      <c r="L10">
-        <v>6.4395646854272653E-4</v>
-      </c>
-      <c r="M10">
-        <v>7.089173783900401E-3</v>
-      </c>
-      <c r="N10">
-        <v>2.2692316601807358E-2</v>
-      </c>
-      <c r="O10">
-        <v>1.8154806470022385E-2</v>
-      </c>
-      <c r="P10">
-        <v>1.0529408693900004E-4</v>
-      </c>
-      <c r="Q10">
-        <v>1.1859439265761056E-5</v>
-      </c>
-      <c r="R10">
-        <v>4.4334352395368438E-6</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>2.2167176197684218E-7</v>
-      </c>
-      <c r="K11">
-        <v>3.1477390200711589E-5</v>
-      </c>
-      <c r="L11">
-        <v>6.0948650955532752E-4</v>
-      </c>
-      <c r="M11">
-        <v>6.9010852938630506E-3</v>
-      </c>
-      <c r="N11">
-        <v>2.2323676461639869E-2</v>
-      </c>
-      <c r="O11">
-        <v>2.0367644833956214E-2</v>
-      </c>
-      <c r="P11">
-        <v>1.4331079411802845E-4</v>
-      </c>
-      <c r="Q11">
-        <v>1.4076156885529479E-5</v>
-      </c>
-      <c r="R11">
-        <v>5.652629930409475E-6</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>2.6822283199197903E-5</v>
-      </c>
-      <c r="L12">
-        <v>5.4442584741512437E-4</v>
-      </c>
-      <c r="M12">
-        <v>6.4838990378226335E-3</v>
-      </c>
-      <c r="N12">
-        <v>2.214800159027322E-2</v>
-      </c>
-      <c r="O12">
-        <v>2.2086155168681683E-2</v>
-      </c>
-      <c r="P12">
-        <v>1.8720180298944321E-4</v>
-      </c>
-      <c r="Q12">
-        <v>1.6071202743321056E-5</v>
-      </c>
-      <c r="R12">
-        <v>2.6600611437221061E-6</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>2.2167176197684218E-7</v>
-      </c>
-      <c r="K13">
-        <v>2.4716401460417903E-5</v>
-      </c>
-      <c r="L13">
-        <v>5.5916701958658437E-4</v>
-      </c>
-      <c r="M13">
-        <v>6.6221113814151945E-3</v>
-      </c>
-      <c r="N13">
-        <v>2.182513666895395E-2</v>
-      </c>
-      <c r="O13">
-        <v>2.380056457581058E-2</v>
-      </c>
-      <c r="P13">
-        <v>2.0349467749474111E-4</v>
-      </c>
-      <c r="Q13">
-        <v>1.7733740958147375E-5</v>
-      </c>
-      <c r="R13">
-        <v>3.3250764296526326E-6</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>3.3250764296526326E-7</v>
-      </c>
-      <c r="K14">
-        <v>3.0147359628850535E-5</v>
-      </c>
-      <c r="L14">
-        <v>6.3653046451650225E-4</v>
-      </c>
-      <c r="M14">
-        <v>7.4320999996785762E-3</v>
-      </c>
-      <c r="N14">
-        <v>2.3638965861329461E-2</v>
-      </c>
-      <c r="O14">
-        <v>2.5077172253035213E-2</v>
-      </c>
-      <c r="P14">
-        <v>2.160191320464327E-4</v>
-      </c>
-      <c r="Q14">
-        <v>2.2278012078672639E-5</v>
-      </c>
-      <c r="R14">
-        <v>2.2167176197684219E-6</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>4.4334352395368437E-7</v>
-      </c>
-      <c r="K15">
-        <v>3.2696584891584221E-5</v>
-      </c>
-      <c r="L15">
-        <v>7.1688647823310754E-4</v>
-      </c>
-      <c r="M15">
-        <v>8.0739505864825221E-3</v>
-      </c>
-      <c r="N15">
-        <v>2.5081938195917714E-2</v>
-      </c>
-      <c r="O15">
-        <v>2.641595885949435E-2</v>
-      </c>
-      <c r="P15">
-        <v>2.5004574750987795E-4</v>
-      </c>
-      <c r="Q15">
-        <v>1.7179561553205269E-5</v>
-      </c>
-      <c r="R15">
-        <v>1.8842099768031584E-6</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>3.3250764296526326E-7</v>
-      </c>
-      <c r="K16">
-        <v>3.4026615463445273E-5</v>
-      </c>
-      <c r="L16">
-        <v>7.7906540746761185E-4</v>
-      </c>
-      <c r="M16">
-        <v>8.2294533275092778E-3</v>
-      </c>
-      <c r="N16">
-        <v>2.4887310388902049E-2</v>
-      </c>
-      <c r="O16">
-        <v>2.5906335478709592E-2</v>
-      </c>
-      <c r="P16">
-        <v>2.7764388187599481E-4</v>
-      </c>
-      <c r="Q16">
-        <v>1.5627859219367372E-5</v>
-      </c>
-      <c r="R16">
-        <v>1.6625382148263163E-6</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1.2191946908726319E-6</v>
-      </c>
-      <c r="K17">
-        <v>3.5689153678271589E-5</v>
-      </c>
-      <c r="L17">
-        <v>8.5886724177927502E-4</v>
-      </c>
-      <c r="M17">
-        <v>8.5004470565259675E-3</v>
-      </c>
-      <c r="N17">
-        <v>2.501831840023036E-2</v>
-      </c>
-      <c r="O17">
-        <v>2.6230862938243688E-2</v>
-      </c>
-      <c r="P17">
-        <v>3.233082648432243E-4</v>
-      </c>
-      <c r="Q17">
-        <v>2.1058817387800007E-5</v>
-      </c>
-      <c r="R17">
-        <v>8.8668704790736873E-7</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>6.6501528593052652E-7</v>
-      </c>
-      <c r="K18">
-        <v>3.546748191629475E-5</v>
-      </c>
-      <c r="L18">
-        <v>8.7782017742829501E-4</v>
-      </c>
-      <c r="M18">
-        <v>8.5300402367498758E-3</v>
-      </c>
-      <c r="N18">
-        <v>2.4954366096900042E-2</v>
-      </c>
-      <c r="O18">
-        <v>2.6724193444523151E-2</v>
-      </c>
-      <c r="P18">
-        <v>3.9645994629558225E-4</v>
-      </c>
-      <c r="Q18">
-        <v>2.4273057936464219E-5</v>
-      </c>
-      <c r="R18">
-        <v>7.7585116691894758E-7</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>3.3250764296526326E-7</v>
-      </c>
-      <c r="J19">
-        <v>1.1083588098842109E-6</v>
-      </c>
-      <c r="K19">
-        <v>3.546748191629475E-5</v>
-      </c>
-      <c r="L19">
-        <v>8.5831306237433289E-4</v>
-      </c>
-      <c r="M19">
-        <v>8.5100897781719594E-3</v>
-      </c>
-      <c r="N19">
-        <v>2.4612880747574718E-2</v>
-      </c>
-      <c r="O19">
-        <v>2.7526977730522283E-2</v>
-      </c>
-      <c r="P19">
-        <v>5.110642472376096E-4</v>
-      </c>
-      <c r="Q19">
-        <v>2.8595657295012641E-5</v>
-      </c>
-      <c r="R19">
-        <v>8.8668704790736873E-7</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>5.5417940494210547E-7</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>3.0923210795769486E-5</v>
-      </c>
-      <c r="L20">
-        <v>8.0544434714285601E-4</v>
-      </c>
-      <c r="M20">
-        <v>8.1659443677029112E-3</v>
-      </c>
-      <c r="N20">
-        <v>2.4261531004841422E-2</v>
-      </c>
-      <c r="O20">
-        <v>2.8825087568658671E-2</v>
-      </c>
-      <c r="P20">
-        <v>6.6556946533546859E-4</v>
-      </c>
-      <c r="Q20">
-        <v>3.1477390200711589E-5</v>
-      </c>
-      <c r="R20">
-        <v>2.2167176197684219E-6</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>2.2167176197684218E-7</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>5.6747971066071599E-5</v>
-      </c>
-      <c r="L21">
-        <v>1.1310801654868371E-3</v>
-      </c>
-      <c r="M21">
-        <v>1.0692226603071994E-2</v>
-      </c>
-      <c r="N21">
-        <v>3.0049934889461713E-2</v>
-      </c>
-      <c r="O21">
-        <v>3.9554111684218823E-2</v>
-      </c>
-      <c r="P21">
-        <v>1.073112999729893E-3</v>
-      </c>
-      <c r="Q21">
-        <v>8.0356013716605286E-5</v>
-      </c>
-      <c r="R21">
-        <v>1.4408664528494742E-6</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>100</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1.1083588098842109E-6</v>
-      </c>
-      <c r="M22">
-        <v>1.2524454551691582E-5</v>
-      </c>
-      <c r="N22">
-        <v>1.1416095741807373E-5</v>
-      </c>
-      <c r="O22">
-        <v>6.8718246212821071E-6</v>
-      </c>
-      <c r="P22">
-        <v>2.5492252627336852E-6</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC3E53D-D7BD-44FD-9260-11882CC8BEFF}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5788,1320 +7101,6 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>6.7145981541301085E-8</v>
-      </c>
-      <c r="I2">
-        <v>1.0743357046608174E-6</v>
-      </c>
-      <c r="J2">
-        <v>2.4844013170281402E-5</v>
-      </c>
-      <c r="K2">
-        <v>6.7132552344992833E-4</v>
-      </c>
-      <c r="L2">
-        <v>9.9603677558550621E-3</v>
-      </c>
-      <c r="M2">
-        <v>6.6171894787081437E-2</v>
-      </c>
-      <c r="N2">
-        <v>0.26924873852844478</v>
-      </c>
-      <c r="O2">
-        <v>1.755430968425005E-2</v>
-      </c>
-      <c r="P2">
-        <v>3.1122162444393057E-4</v>
-      </c>
-      <c r="Q2">
-        <v>8.3932476926626361E-5</v>
-      </c>
-      <c r="R2">
-        <v>6.6474521725888082E-6</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.3429196308260217E-7</v>
-      </c>
-      <c r="J3">
-        <v>5.4388245048453883E-6</v>
-      </c>
-      <c r="K3">
-        <v>1.1394673067558796E-4</v>
-      </c>
-      <c r="L3">
-        <v>1.4549862740184532E-3</v>
-      </c>
-      <c r="M3">
-        <v>9.6484075256141784E-3</v>
-      </c>
-      <c r="N3">
-        <v>3.1490592445110176E-2</v>
-      </c>
-      <c r="O3">
-        <v>2.1426282709829177E-3</v>
-      </c>
-      <c r="P3">
-        <v>3.9347545183202437E-5</v>
-      </c>
-      <c r="Q3">
-        <v>1.6316473514536166E-5</v>
-      </c>
-      <c r="R3">
-        <v>4.9016566525149798E-6</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>3.3572990770650545E-7</v>
-      </c>
-      <c r="J4">
-        <v>4.8345106709736788E-6</v>
-      </c>
-      <c r="K4">
-        <v>1.1267095702630323E-4</v>
-      </c>
-      <c r="L4">
-        <v>1.4081855248841665E-3</v>
-      </c>
-      <c r="M4">
-        <v>9.3050901219935058E-3</v>
-      </c>
-      <c r="N4">
-        <v>2.8189091678705942E-2</v>
-      </c>
-      <c r="O4">
-        <v>1.825564946144894E-3</v>
-      </c>
-      <c r="P4">
-        <v>3.5385932272265673E-5</v>
-      </c>
-      <c r="Q4">
-        <v>9.4004374157821533E-6</v>
-      </c>
-      <c r="R4">
-        <v>1.3429196308260218E-6</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>6.0431383387170985E-7</v>
-      </c>
-      <c r="J5">
-        <v>6.5803061910475071E-6</v>
-      </c>
-      <c r="K5">
-        <v>9.5011563880941047E-5</v>
-      </c>
-      <c r="L5">
-        <v>1.2233997836825058E-3</v>
-      </c>
-      <c r="M5">
-        <v>7.8689718687881566E-3</v>
-      </c>
-      <c r="N5">
-        <v>2.1782559287887322E-2</v>
-      </c>
-      <c r="O5">
-        <v>1.3516486084263909E-3</v>
-      </c>
-      <c r="P5">
-        <v>2.0680962314720736E-5</v>
-      </c>
-      <c r="Q5">
-        <v>3.2230071139824525E-6</v>
-      </c>
-      <c r="R5">
-        <v>2.0143794462390328E-7</v>
-      </c>
-      <c r="S5">
-        <v>6.7145981541301085E-8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>2.6858392616520434E-7</v>
-      </c>
-      <c r="J6">
-        <v>6.6474521725888082E-6</v>
-      </c>
-      <c r="K6">
-        <v>9.6018753604060558E-5</v>
-      </c>
-      <c r="L6">
-        <v>1.2264884988334058E-3</v>
-      </c>
-      <c r="M6">
-        <v>7.8068618358624539E-3</v>
-      </c>
-      <c r="N6">
-        <v>2.1287961987854098E-2</v>
-      </c>
-      <c r="O6">
-        <v>1.3695765854979183E-3</v>
-      </c>
-      <c r="P6">
-        <v>1.7927977071527391E-5</v>
-      </c>
-      <c r="Q6">
-        <v>3.827320947854162E-6</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>2.6858392616520434E-7</v>
-      </c>
-      <c r="J7">
-        <v>4.0287588924780652E-6</v>
-      </c>
-      <c r="K7">
-        <v>1.0038324240424513E-4</v>
-      </c>
-      <c r="L7">
-        <v>1.2090305436326674E-3</v>
-      </c>
-      <c r="M7">
-        <v>7.7232650888435341E-3</v>
-      </c>
-      <c r="N7">
-        <v>2.097177156077611E-2</v>
-      </c>
-      <c r="O7">
-        <v>1.3997922771915039E-3</v>
-      </c>
-      <c r="P7">
-        <v>2.0076648480849025E-5</v>
-      </c>
-      <c r="Q7">
-        <v>3.827320947854162E-6</v>
-      </c>
-      <c r="R7">
-        <v>5.3716785233040868E-7</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>3.3572990770650545E-7</v>
-      </c>
-      <c r="J8">
-        <v>3.827320947854162E-6</v>
-      </c>
-      <c r="K8">
-        <v>1.0461343924134709E-4</v>
-      </c>
-      <c r="L8">
-        <v>1.2330688050244533E-3</v>
-      </c>
-      <c r="M8">
-        <v>8.1276853356667903E-3</v>
-      </c>
-      <c r="N8">
-        <v>2.164323137618912E-2</v>
-      </c>
-      <c r="O8">
-        <v>1.5027270668943184E-3</v>
-      </c>
-      <c r="P8">
-        <v>1.9942356517766423E-5</v>
-      </c>
-      <c r="Q8">
-        <v>3.0215691693585489E-6</v>
-      </c>
-      <c r="R8">
-        <v>6.7145981541301091E-7</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>5.0359486155975819E-6</v>
-      </c>
-      <c r="K9">
-        <v>9.7227381271803974E-5</v>
-      </c>
-      <c r="L9">
-        <v>1.124426606890628E-3</v>
-      </c>
-      <c r="M9">
-        <v>7.7367614311333356E-3</v>
-      </c>
-      <c r="N9">
-        <v>2.1425141228142975E-2</v>
-      </c>
-      <c r="O9">
-        <v>1.6066690463202526E-3</v>
-      </c>
-      <c r="P9">
-        <v>2.1486714093216349E-5</v>
-      </c>
-      <c r="Q9">
-        <v>4.2301968371019684E-6</v>
-      </c>
-      <c r="R9">
-        <v>4.0287588924780656E-7</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>3.827320947854162E-6</v>
-      </c>
-      <c r="K10">
-        <v>6.8824631079833617E-5</v>
-      </c>
-      <c r="L10">
-        <v>9.6327625119150542E-4</v>
-      </c>
-      <c r="M10">
-        <v>7.2812430923571486E-3</v>
-      </c>
-      <c r="N10">
-        <v>2.2138768719963925E-2</v>
-      </c>
-      <c r="O10">
-        <v>1.7372679804180831E-3</v>
-      </c>
-      <c r="P10">
-        <v>2.3031071668666275E-5</v>
-      </c>
-      <c r="Q10">
-        <v>2.7529852431933447E-6</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>2.0143794462390328E-7</v>
-      </c>
-      <c r="J11">
-        <v>3.2901530955237536E-6</v>
-      </c>
-      <c r="K11">
-        <v>6.4392996298107751E-5</v>
-      </c>
-      <c r="L11">
-        <v>9.6589494447161617E-4</v>
-      </c>
-      <c r="M11">
-        <v>7.634766685172099E-3</v>
-      </c>
-      <c r="N11">
-        <v>2.4867782847747023E-2</v>
-      </c>
-      <c r="O11">
-        <v>2.0418421526894248E-3</v>
-      </c>
-      <c r="P11">
-        <v>3.1894341232118018E-5</v>
-      </c>
-      <c r="Q11">
-        <v>4.9016566525149798E-6</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.3429196308260217E-7</v>
-      </c>
-      <c r="J12">
-        <v>3.3572990770650546E-6</v>
-      </c>
-      <c r="K12">
-        <v>7.5203499326257226E-5</v>
-      </c>
-      <c r="L12">
-        <v>1.0386811884623866E-3</v>
-      </c>
-      <c r="M12">
-        <v>7.5616447112736226E-3</v>
-      </c>
-      <c r="N12">
-        <v>2.0992586815053914E-2</v>
-      </c>
-      <c r="O12">
-        <v>1.683282611258877E-3</v>
-      </c>
-      <c r="P12">
-        <v>2.6858392616520437E-5</v>
-      </c>
-      <c r="Q12">
-        <v>3.08871515089985E-6</v>
-      </c>
-      <c r="R12">
-        <v>5.3716785233040868E-7</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.3429196308260217E-7</v>
-      </c>
-      <c r="J13">
-        <v>3.4915910401476567E-6</v>
-      </c>
-      <c r="K13">
-        <v>8.7155484040608812E-5</v>
-      </c>
-      <c r="L13">
-        <v>1.2454908116095939E-3</v>
-      </c>
-      <c r="M13">
-        <v>8.5996544399205965E-3</v>
-      </c>
-      <c r="N13">
-        <v>2.0370009274202971E-2</v>
-      </c>
-      <c r="O13">
-        <v>1.4062382914194688E-3</v>
-      </c>
-      <c r="P13">
-        <v>2.9342793933548578E-5</v>
-      </c>
-      <c r="Q13">
-        <v>3.2230071139824525E-6</v>
-      </c>
-      <c r="R13">
-        <v>1.3429196308260217E-7</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.3429196308260217E-7</v>
-      </c>
-      <c r="J14">
-        <v>3.8944669293954631E-6</v>
-      </c>
-      <c r="K14">
-        <v>1.0024895044116253E-4</v>
-      </c>
-      <c r="L14">
-        <v>1.3503056887955649E-3</v>
-      </c>
-      <c r="M14">
-        <v>9.2902508600728774E-3</v>
-      </c>
-      <c r="N14">
-        <v>2.045870911581903E-2</v>
-      </c>
-      <c r="O14">
-        <v>1.3593703963036407E-3</v>
-      </c>
-      <c r="P14">
-        <v>2.397111541024449E-5</v>
-      </c>
-      <c r="Q14">
-        <v>2.4172553354868394E-6</v>
-      </c>
-      <c r="R14">
-        <v>1.3429196308260217E-7</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>4.0287588924780656E-7</v>
-      </c>
-      <c r="J15">
-        <v>5.2373865602214851E-6</v>
-      </c>
-      <c r="K15">
-        <v>1.108580155246881E-4</v>
-      </c>
-      <c r="L15">
-        <v>1.4342381657221912E-3</v>
-      </c>
-      <c r="M15">
-        <v>9.8031118670853356E-3</v>
-      </c>
-      <c r="N15">
-        <v>2.0505979886824104E-2</v>
-      </c>
-      <c r="O15">
-        <v>1.3425167549367741E-3</v>
-      </c>
-      <c r="P15">
-        <v>3.135717337978761E-5</v>
-      </c>
-      <c r="Q15">
-        <v>3.2901530955237536E-6</v>
-      </c>
-      <c r="R15">
-        <v>6.7145981541301085E-8</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1.3429196308260217E-7</v>
-      </c>
-      <c r="J16">
-        <v>4.7002187078910767E-6</v>
-      </c>
-      <c r="K16">
-        <v>1.0239762185048417E-4</v>
-      </c>
-      <c r="L16">
-        <v>1.4800988711148998E-3</v>
-      </c>
-      <c r="M16">
-        <v>9.934717990906285E-3</v>
-      </c>
-      <c r="N16">
-        <v>1.9711172903319724E-2</v>
-      </c>
-      <c r="O16">
-        <v>1.297461801322561E-3</v>
-      </c>
-      <c r="P16">
-        <v>3.0282837675126793E-5</v>
-      </c>
-      <c r="Q16">
-        <v>5.5731164679279904E-6</v>
-      </c>
-      <c r="R16">
-        <v>6.7145981541301085E-8</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>6.0431383387170978E-6</v>
-      </c>
-      <c r="K17">
-        <v>1.0380768746285149E-4</v>
-      </c>
-      <c r="L17">
-        <v>1.6041846450032243E-3</v>
-      </c>
-      <c r="M17">
-        <v>1.0347531485422204E-2</v>
-      </c>
-      <c r="N17">
-        <v>1.9565667561319725E-2</v>
-      </c>
-      <c r="O17">
-        <v>1.3993222553207148E-3</v>
-      </c>
-      <c r="P17">
-        <v>2.766414439501605E-5</v>
-      </c>
-      <c r="Q17">
-        <v>4.5659267448084745E-6</v>
-      </c>
-      <c r="R17">
-        <v>3.3572990770650545E-7</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>9.4004374157821525E-7</v>
-      </c>
-      <c r="J18">
-        <v>9.4675833973234544E-6</v>
-      </c>
-      <c r="K18">
-        <v>1.1972128508813985E-4</v>
-      </c>
-      <c r="L18">
-        <v>1.697114683456385E-3</v>
-      </c>
-      <c r="M18">
-        <v>1.0622964301704622E-2</v>
-      </c>
-      <c r="N18">
-        <v>1.867464038626666E-2</v>
-      </c>
-      <c r="O18">
-        <v>1.5479834584531554E-3</v>
-      </c>
-      <c r="P18">
-        <v>3.0820005527457201E-5</v>
-      </c>
-      <c r="Q18">
-        <v>3.4915910401476567E-6</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>2.0143794462390328E-7</v>
-      </c>
-      <c r="I19">
-        <v>1.9472334646977316E-6</v>
-      </c>
-      <c r="J19">
-        <v>6.7817441356714103E-6</v>
-      </c>
-      <c r="K19">
-        <v>1.2307858416520489E-4</v>
-      </c>
-      <c r="L19">
-        <v>1.7700352194102381E-3</v>
-      </c>
-      <c r="M19">
-        <v>1.060993798128561E-2</v>
-      </c>
-      <c r="N19">
-        <v>1.7595403024953327E-2</v>
-      </c>
-      <c r="O19">
-        <v>1.8876749790705976E-3</v>
-      </c>
-      <c r="P19">
-        <v>3.4781618438393965E-5</v>
-      </c>
-      <c r="Q19">
-        <v>3.9616129109367642E-6</v>
-      </c>
-      <c r="R19">
-        <v>6.7145981541301085E-8</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>2.0143794462390328E-7</v>
-      </c>
-      <c r="I20">
-        <v>8.7289776003691419E-7</v>
-      </c>
-      <c r="J20">
-        <v>5.5059704863866894E-6</v>
-      </c>
-      <c r="K20">
-        <v>1.4597536387078857E-4</v>
-      </c>
-      <c r="L20">
-        <v>1.8361068652468784E-3</v>
-      </c>
-      <c r="M20">
-        <v>1.0561660020557414E-2</v>
-      </c>
-      <c r="N20">
-        <v>1.8077846902327575E-2</v>
-      </c>
-      <c r="O20">
-        <v>2.5972065660175262E-3</v>
-      </c>
-      <c r="P20">
-        <v>4.9083712506691096E-5</v>
-      </c>
-      <c r="Q20">
-        <v>2.4844013170281404E-6</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>6.0431383387170985E-7</v>
-      </c>
-      <c r="J21">
-        <v>7.587495914167023E-6</v>
-      </c>
-      <c r="K21">
-        <v>1.5732303475126844E-4</v>
-      </c>
-      <c r="L21">
-        <v>1.8562506597092686E-3</v>
-      </c>
-      <c r="M21">
-        <v>9.5922063390641091E-3</v>
-      </c>
-      <c r="N21">
-        <v>1.2152751199160084E-2</v>
-      </c>
-      <c r="O21">
-        <v>3.4237735987909428E-3</v>
-      </c>
-      <c r="P21">
-        <v>7.110759445223785E-5</v>
-      </c>
-      <c r="Q21">
-        <v>2.8201312247346457E-6</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>100</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>6.7145981541301085E-8</v>
-      </c>
-      <c r="K22">
-        <v>5.2373865602214851E-6</v>
-      </c>
-      <c r="L22">
-        <v>1.0011465847807992E-4</v>
-      </c>
-      <c r="M22">
-        <v>7.3222692870788836E-4</v>
-      </c>
-      <c r="N22">
-        <v>9.1499829046330996E-4</v>
-      </c>
-      <c r="O22">
-        <v>4.3436735459067676E-4</v>
-      </c>
-      <c r="P22">
-        <v>9.1318534896169491E-6</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E8E997-EBC6-42CD-B14C-14CAFD146242}">
-  <dimension ref="A1:S22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
@@ -8325,7 +8324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E167EF-7E1D-42DD-BD2C-08F3A56E3ADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8340,7 +8339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5B7491-4512-416F-A5DC-26CD0F09B44D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/rtm_flask/data/battery.xlsx
+++ b/rtm_flask/data/battery.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="1065" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="6585" yWindow="1065" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="lavida_6_char" sheetId="1" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:T16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="B2:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7013,7 +7013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:S22"/>
     </sheetView>
   </sheetViews>
